--- a/data/trans_orig/P19E-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19E-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD8630DE-7BEC-4492-881C-969CBE9091DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC788E72-7E54-4743-8C94-818B35766064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{45D9AC68-7F99-4CC2-8897-5B91F708270A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E677B5E4-3192-4A8F-9CB9-A9FFC7805DE1}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="741">
   <si>
     <t>Población según el número de veces que se cepilla los dientes al día en 2015 (Tasa respuesta: 97,38%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>23,11%</t>
   </si>
   <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
   </si>
   <si>
     <t>38,42%</t>
   </si>
   <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
   </si>
   <si>
     <t>30,72%</t>
   </si>
   <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
   </si>
   <si>
     <t>Dos veces al dia</t>
@@ -105,28 +105,28 @@
     <t>32,79%</t>
   </si>
   <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
   </si>
   <si>
     <t>40,11%</t>
   </si>
   <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
   </si>
   <si>
     <t>36,43%</t>
   </si>
   <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
   </si>
   <si>
     <t>Una vez al dia</t>
@@ -135,2095 +135,2131 @@
     <t>29,88%</t>
   </si>
   <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
   </si>
   <si>
     <t>16,88%</t>
   </si>
   <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
   </si>
   <si>
     <t>23,42%</t>
   </si>
   <si>
-    <t>20,08%</t>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente/no todos los dias</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el número de veces que se cepilla los dientes al día en 2023 (Tasa respuesta: 99,26%)</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
   </si>
   <si>
     <t>26,98%</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>Ocasionalmente/no todos los dias</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
   </si>
   <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
   </si>
   <si>
     <t>1,56%</t>
   </si>
   <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
+    <t>0,84%</t>
   </si>
   <si>
     <t>1,86%</t>
   </si>
   <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el número de veces que se cepilla los dientes al día en 2023 (Tasa respuesta: 99,26%)</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
   </si>
   <si>
     <t>3,24%</t>
   </si>
   <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
+    <t>2,71%</t>
   </si>
   <si>
     <t>3,87%</t>
   </si>
   <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
     <t>2,2%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
   </si>
 </sst>
 </file>
@@ -2635,7 +2671,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC569415-3484-46C7-BA78-E99105022A8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57009BD7-50C3-4AEC-A592-8F96E853DA1D}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3528,13 +3564,13 @@
         <v>3127</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -3543,13 +3579,13 @@
         <v>3244</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -3558,13 +3594,13 @@
         <v>6371</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>141</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3582,7 +3618,7 @@
         <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>143</v>
@@ -3597,10 +3633,10 @@
         <v>144</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -3609,10 +3645,10 @@
         <v>2686</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>147</v>
@@ -3701,10 +3737,10 @@
         <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>21</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>239</v>
@@ -3713,13 +3749,13 @@
         <v>255917</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,13 +3770,13 @@
         <v>105704</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H23" s="7">
         <v>132</v>
@@ -3749,13 +3785,13 @@
         <v>141714</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>232</v>
@@ -3764,13 +3800,13 @@
         <v>247419</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3785,13 +3821,13 @@
         <v>104202</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H24" s="7">
         <v>79</v>
@@ -3800,13 +3836,13 @@
         <v>86767</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M24" s="7">
         <v>180</v>
@@ -3815,13 +3851,13 @@
         <v>190970</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3836,13 +3872,13 @@
         <v>12512</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -3851,13 +3887,13 @@
         <v>1205</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>140</v>
+        <v>178</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M25" s="7">
         <v>13</v>
@@ -3866,13 +3902,13 @@
         <v>13717</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>92</v>
+        <v>181</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3887,13 +3923,13 @@
         <v>35210</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H26" s="7">
         <v>8</v>
@@ -3902,13 +3938,13 @@
         <v>8951</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>45</v>
+        <v>187</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>184</v>
+        <v>46</v>
       </c>
       <c r="M26" s="7">
         <v>43</v>
@@ -3917,13 +3953,13 @@
         <v>44161</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3979,7 +4015,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3991,13 +4027,13 @@
         <v>53829</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H28" s="7">
         <v>60</v>
@@ -4006,13 +4042,13 @@
         <v>57062</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M28" s="7">
         <v>112</v>
@@ -4021,13 +4057,13 @@
         <v>110892</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4042,13 +4078,13 @@
         <v>74278</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H29" s="7">
         <v>98</v>
@@ -4057,13 +4093,13 @@
         <v>95372</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M29" s="7">
         <v>173</v>
@@ -4072,13 +4108,13 @@
         <v>169650</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4093,13 +4129,13 @@
         <v>71208</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H30" s="7">
         <v>54</v>
@@ -4108,13 +4144,13 @@
         <v>53480</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M30" s="7">
         <v>127</v>
@@ -4123,13 +4159,13 @@
         <v>124687</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4144,13 +4180,13 @@
         <v>960</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>217</v>
+        <v>89</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -4159,13 +4195,13 @@
         <v>5779</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M31" s="7">
         <v>6</v>
@@ -4174,13 +4210,13 @@
         <v>6739</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,13 +4231,13 @@
         <v>5530</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -4210,13 +4246,13 @@
         <v>3203</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M32" s="7">
         <v>7</v>
@@ -4225,13 +4261,13 @@
         <v>8733</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4287,7 +4323,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4299,13 +4335,13 @@
         <v>26920</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H34" s="7">
         <v>35</v>
@@ -4314,13 +4350,13 @@
         <v>35719</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M34" s="7">
         <v>61</v>
@@ -4329,13 +4365,13 @@
         <v>62639</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4350,13 +4386,13 @@
         <v>65992</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H35" s="7">
         <v>93</v>
@@ -4365,13 +4401,13 @@
         <v>93037</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M35" s="7">
         <v>158</v>
@@ -4380,13 +4416,13 @@
         <v>159030</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4401,13 +4437,13 @@
         <v>82971</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>63</v>
+        <v>252</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H36" s="7">
         <v>82</v>
@@ -4416,13 +4452,13 @@
         <v>84915</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="M36" s="7">
         <v>165</v>
@@ -4431,13 +4467,13 @@
         <v>167886</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,13 +4488,13 @@
         <v>2677</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>259</v>
+        <v>178</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -4467,13 +4503,13 @@
         <v>1194</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M37" s="7">
         <v>4</v>
@@ -4482,13 +4518,13 @@
         <v>3871</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4503,13 +4539,13 @@
         <v>83614</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H38" s="7">
         <v>51</v>
@@ -4518,13 +4554,13 @@
         <v>57329</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="M38" s="7">
         <v>132</v>
@@ -4533,13 +4569,13 @@
         <v>140944</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>273</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4595,7 +4631,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -4607,13 +4643,13 @@
         <v>160405</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>196</v>
+        <v>277</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H40" s="7">
         <v>221</v>
@@ -4622,13 +4658,13 @@
         <v>233522</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M40" s="7">
         <v>360</v>
@@ -4637,13 +4673,13 @@
         <v>393927</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>281</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,13 +4694,13 @@
         <v>160573</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H41" s="7">
         <v>189</v>
@@ -4673,13 +4709,13 @@
         <v>202277</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M41" s="7">
         <v>335</v>
@@ -4688,13 +4724,13 @@
         <v>362850</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4709,13 +4745,13 @@
         <v>221587</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>204</v>
+        <v>294</v>
       </c>
       <c r="H42" s="7">
         <v>154</v>
@@ -4724,13 +4760,13 @@
         <v>164129</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M42" s="7">
         <v>346</v>
@@ -4739,13 +4775,13 @@
         <v>385715</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4760,13 +4796,13 @@
         <v>35296</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H43" s="7">
         <v>23</v>
@@ -4775,13 +4811,13 @@
         <v>26438</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M43" s="7">
         <v>54</v>
@@ -4790,13 +4826,13 @@
         <v>61734</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4811,13 +4847,13 @@
         <v>34580</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H44" s="7">
         <v>13</v>
@@ -4826,13 +4862,13 @@
         <v>13408</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>313</v>
+        <v>101</v>
       </c>
       <c r="M44" s="7">
         <v>43</v>
@@ -4841,7 +4877,7 @@
         <v>47988</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>315</v>
@@ -4996,13 +5032,13 @@
         <v>487960</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P47" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="P47" s="7" t="s">
+      <c r="Q47" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -5017,13 +5053,13 @@
         <v>100024</v>
       </c>
       <c r="E48" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F48" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="G48" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="H48" s="7">
         <v>89</v>
@@ -5032,13 +5068,13 @@
         <v>97300</v>
       </c>
       <c r="J48" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K48" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="K48" s="7" t="s">
+      <c r="L48" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="M48" s="7">
         <v>189</v>
@@ -5047,13 +5083,13 @@
         <v>197325</v>
       </c>
       <c r="O48" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P48" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="P48" s="7" t="s">
+      <c r="Q48" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="Q48" s="7" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -5068,13 +5104,13 @@
         <v>9940</v>
       </c>
       <c r="E49" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="F49" s="7" t="s">
-        <v>346</v>
-      </c>
       <c r="G49" s="7" t="s">
-        <v>347</v>
+        <v>186</v>
       </c>
       <c r="H49" s="7">
         <v>6</v>
@@ -5083,13 +5119,13 @@
         <v>7081</v>
       </c>
       <c r="J49" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="L49" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="M49" s="7">
         <v>17</v>
@@ -5098,13 +5134,13 @@
         <v>17021</v>
       </c>
       <c r="O49" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q49" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="P49" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,13 +5155,13 @@
         <v>22553</v>
       </c>
       <c r="E50" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G50" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="H50" s="7">
         <v>5</v>
@@ -5134,13 +5170,13 @@
         <v>5307</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>357</v>
+        <v>135</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="M50" s="7">
         <v>27</v>
@@ -5149,13 +5185,13 @@
         <v>27861</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>360</v>
+        <v>314</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,13 +5259,13 @@
         <v>1159819</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H52" s="7">
         <v>1420</v>
@@ -5238,13 +5274,13 @@
         <v>1498161</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="M52" s="7">
         <v>2517</v>
@@ -5253,13 +5289,13 @@
         <v>2657980</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,13 +5310,13 @@
         <v>990542</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="H53" s="7">
         <v>1071</v>
@@ -5289,13 +5325,13 @@
         <v>1130839</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="M53" s="7">
         <v>2020</v>
@@ -5304,13 +5340,13 @@
         <v>2121381</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>377</v>
+        <v>117</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -5325,13 +5361,13 @@
         <v>805598</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="H54" s="7">
         <v>605</v>
@@ -5340,13 +5376,13 @@
         <v>640242</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="M54" s="7">
         <v>1371</v>
@@ -5355,13 +5391,13 @@
         <v>1445840</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -5376,13 +5412,13 @@
         <v>98463</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>262</v>
+        <v>386</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>313</v>
+        <v>387</v>
       </c>
       <c r="H55" s="7">
         <v>53</v>
@@ -5391,13 +5427,13 @@
         <v>62807</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M55" s="7">
         <v>148</v>
@@ -5406,13 +5442,13 @@
         <v>161270</v>
       </c>
       <c r="O55" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q55" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="P55" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -5427,13 +5463,13 @@
         <v>243546</v>
       </c>
       <c r="E56" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="G56" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="H56" s="7">
         <v>110</v>
@@ -5442,13 +5478,13 @@
         <v>123593</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="K56" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="K56" s="7" t="s">
-        <v>398</v>
-      </c>
       <c r="L56" s="7" t="s">
-        <v>399</v>
+        <v>93</v>
       </c>
       <c r="M56" s="7">
         <v>341</v>
@@ -5457,13 +5493,13 @@
         <v>367138</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q56" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="P56" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -5519,7 +5555,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -5543,7 +5579,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AE2A42-363F-47D6-8CEA-135C0F5658BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E7BDC5-62E5-459B-9F05-120D78D7DB95}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5560,7 +5596,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5667,13 +5703,13 @@
         <v>20364</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="H4" s="7">
         <v>48</v>
@@ -5682,13 +5718,13 @@
         <v>30199</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="M4" s="7">
         <v>68</v>
@@ -5697,13 +5733,13 @@
         <v>50563</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5718,13 +5754,13 @@
         <v>158818</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="H5" s="7">
         <v>334</v>
@@ -5733,13 +5769,13 @@
         <v>171471</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="M5" s="7">
         <v>519</v>
@@ -5748,13 +5784,13 @@
         <v>330289</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5769,13 +5805,13 @@
         <v>70157</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>424</v>
       </c>
       <c r="H6" s="7">
         <v>137</v>
@@ -5784,13 +5820,13 @@
         <v>58370</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>427</v>
       </c>
       <c r="M6" s="7">
         <v>248</v>
@@ -5799,13 +5835,13 @@
         <v>128527</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5820,13 +5856,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -5835,13 +5871,13 @@
         <v>1209</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -5850,13 +5886,13 @@
         <v>1209</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>134</v>
+        <v>435</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5871,10 +5907,10 @@
         <v>10801</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>438</v>
+        <v>186</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>439</v>
@@ -5886,10 +5922,10 @@
         <v>9400</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>441</v>
@@ -5904,10 +5940,10 @@
         <v>442</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>94</v>
+        <v>443</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5975,13 +6011,13 @@
         <v>69359</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>237</v>
+        <v>447</v>
       </c>
       <c r="H10" s="7">
         <v>117</v>
@@ -5990,13 +6026,13 @@
         <v>100240</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="M10" s="7">
         <v>167</v>
@@ -6005,13 +6041,13 @@
         <v>169599</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6026,13 +6062,13 @@
         <v>246424</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="H11" s="7">
         <v>400</v>
@@ -6041,13 +6077,13 @@
         <v>315611</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="M11" s="7">
         <v>570</v>
@@ -6056,13 +6092,13 @@
         <v>562035</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6077,13 +6113,13 @@
         <v>173938</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>461</v>
+        <v>160</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H12" s="7">
         <v>166</v>
@@ -6092,7 +6128,7 @@
         <v>115392</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>464</v>
+        <v>193</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>465</v>
@@ -6107,13 +6143,13 @@
         <v>289330</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>39</v>
+        <v>467</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>468</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6131,10 +6167,10 @@
         <v>469</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -6143,13 +6179,13 @@
         <v>2687</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>473</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -6158,13 +6194,13 @@
         <v>9475</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>474</v>
+        <v>231</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>476</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6179,13 +6215,13 @@
         <v>22787</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>477</v>
+        <v>56</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>181</v>
+        <v>475</v>
       </c>
       <c r="H14" s="7">
         <v>27</v>
@@ -6194,13 +6230,13 @@
         <v>19190</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>440</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="M14" s="7">
         <v>46</v>
@@ -6209,13 +6245,13 @@
         <v>41977</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>316</v>
+        <v>480</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6283,13 +6319,13 @@
         <v>52680</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>429</v>
       </c>
       <c r="H16" s="7">
         <v>121</v>
@@ -6298,13 +6334,13 @@
         <v>96125</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="M16" s="7">
         <v>174</v>
@@ -6319,7 +6355,7 @@
         <v>488</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>72</v>
+        <v>489</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6334,13 +6370,13 @@
         <v>139001</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H17" s="7">
         <v>252</v>
@@ -6349,13 +6385,13 @@
         <v>178509</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M17" s="7">
         <v>398</v>
@@ -6364,13 +6400,13 @@
         <v>317509</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6385,13 +6421,13 @@
         <v>102067</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>423</v>
+        <v>500</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="H18" s="7">
         <v>119</v>
@@ -6400,13 +6436,13 @@
         <v>72230</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="M18" s="7">
         <v>242</v>
@@ -6415,13 +6451,13 @@
         <v>174298</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6436,13 +6472,13 @@
         <v>7914</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -6451,13 +6487,13 @@
         <v>5067</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>315</v>
+        <v>513</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
@@ -6466,13 +6502,13 @@
         <v>12981</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>389</v>
+        <v>352</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6487,13 +6523,13 @@
         <v>16930</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>187</v>
+        <v>518</v>
       </c>
       <c r="H20" s="7">
         <v>31</v>
@@ -6502,13 +6538,13 @@
         <v>18735</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="M20" s="7">
         <v>54</v>
@@ -6517,13 +6553,13 @@
         <v>35665</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>519</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6591,13 +6627,13 @@
         <v>131399</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="H22" s="7">
         <v>265</v>
@@ -6606,13 +6642,13 @@
         <v>212568</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="M22" s="7">
         <v>365</v>
@@ -6621,13 +6657,13 @@
         <v>343967</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6642,13 +6678,13 @@
         <v>142296</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="H23" s="7">
         <v>229</v>
@@ -6657,13 +6693,13 @@
         <v>158984</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>369</v>
+        <v>536</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="M23" s="7">
         <v>363</v>
@@ -6672,13 +6708,13 @@
         <v>301280</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6693,13 +6729,13 @@
         <v>35477</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="H24" s="7">
         <v>70</v>
@@ -6708,13 +6744,13 @@
         <v>40362</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>540</v>
+        <v>446</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="M24" s="7">
         <v>109</v>
@@ -6723,13 +6759,13 @@
         <v>75839</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>235</v>
+        <v>549</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6744,13 +6780,13 @@
         <v>2396</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>547</v>
+        <v>315</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -6759,13 +6795,13 @@
         <v>807</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>346</v>
+        <v>552</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -6774,13 +6810,13 @@
         <v>3203</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6795,13 +6831,13 @@
         <v>4877</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>551</v>
+        <v>355</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>179</v>
+        <v>262</v>
       </c>
       <c r="H26" s="7">
         <v>10</v>
@@ -6810,13 +6846,13 @@
         <v>4510</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>470</v>
+        <v>557</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="M26" s="7">
         <v>17</v>
@@ -6825,13 +6861,13 @@
         <v>9387</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6887,7 +6923,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6899,13 +6935,13 @@
         <v>79434</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="H28" s="7">
         <v>201</v>
@@ -6914,13 +6950,13 @@
         <v>95832</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="M28" s="7">
         <v>315</v>
@@ -6929,13 +6965,13 @@
         <v>175266</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>564</v>
+        <v>157</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6950,13 +6986,13 @@
         <v>113257</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="H29" s="7">
         <v>279</v>
@@ -6965,13 +7001,13 @@
         <v>130967</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="M29" s="7">
         <v>438</v>
@@ -6980,13 +7016,13 @@
         <v>244223</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>574</v>
+        <v>459</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7001,13 +7037,13 @@
         <v>3042</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="H30" s="7">
         <v>6</v>
@@ -7016,13 +7052,13 @@
         <v>2624</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>360</v>
+        <v>580</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>578</v>
+        <v>263</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>361</v>
+        <v>581</v>
       </c>
       <c r="M30" s="7">
         <v>10</v>
@@ -7031,13 +7067,13 @@
         <v>5666</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7052,13 +7088,13 @@
         <v>508</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="H31" s="7">
         <v>3</v>
@@ -7067,13 +7103,13 @@
         <v>1165</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>509</v>
+        <v>586</v>
       </c>
       <c r="M31" s="7">
         <v>4</v>
@@ -7082,13 +7118,13 @@
         <v>1674</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>585</v>
+        <v>551</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7103,13 +7139,13 @@
         <v>506</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>469</v>
+        <v>554</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -7118,13 +7154,13 @@
         <v>401</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>474</v>
+        <v>231</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -7133,13 +7169,13 @@
         <v>907</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7195,7 +7231,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -7207,13 +7243,13 @@
         <v>19975</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="H34" s="7">
         <v>41</v>
@@ -7222,13 +7258,13 @@
         <v>31174</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="M34" s="7">
         <v>61</v>
@@ -7237,13 +7273,13 @@
         <v>51149</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7258,13 +7294,13 @@
         <v>129192</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="H35" s="7">
         <v>216</v>
@@ -7273,13 +7309,13 @@
         <v>146639</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>603</v>
+        <v>319</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M35" s="7">
         <v>370</v>
@@ -7288,13 +7324,13 @@
         <v>275831</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7309,13 +7345,13 @@
         <v>99683</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H36" s="7">
         <v>155</v>
@@ -7324,13 +7360,13 @@
         <v>75471</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>430</v>
+        <v>612</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="M36" s="7">
         <v>305</v>
@@ -7339,13 +7375,13 @@
         <v>175154</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>372</v>
+        <v>167</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7360,13 +7396,13 @@
         <v>7609</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>554</v>
+        <v>618</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="H37" s="7">
         <v>16</v>
@@ -7375,13 +7411,13 @@
         <v>9338</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="M37" s="7">
         <v>27</v>
@@ -7390,13 +7426,13 @@
         <v>16946</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7411,13 +7447,13 @@
         <v>19983</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="H38" s="7">
         <v>32</v>
@@ -7426,13 +7462,13 @@
         <v>13001</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>103</v>
+        <v>629</v>
       </c>
       <c r="M38" s="7">
         <v>67</v>
@@ -7441,13 +7477,13 @@
         <v>32984</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7503,7 +7539,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -7515,13 +7551,13 @@
         <v>192827</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>631</v>
+        <v>288</v>
       </c>
       <c r="H40" s="7">
         <v>375</v>
@@ -7530,13 +7566,13 @@
         <v>281960</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="M40" s="7">
         <v>559</v>
@@ -7545,13 +7581,13 @@
         <v>474787</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>364</v>
+        <v>640</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7566,13 +7602,13 @@
         <v>271076</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>637</v>
+        <v>494</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="H41" s="7">
         <v>470</v>
@@ -7581,13 +7617,13 @@
         <v>438409</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="M41" s="7">
         <v>731</v>
@@ -7596,13 +7632,13 @@
         <v>709485</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7617,13 +7653,13 @@
         <v>131017</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="H42" s="7">
         <v>91</v>
@@ -7632,13 +7668,13 @@
         <v>66055</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>650</v>
+        <v>307</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="M42" s="7">
         <v>213</v>
@@ -7647,13 +7683,13 @@
         <v>197072</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7668,13 +7704,13 @@
         <v>9838</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>655</v>
+        <v>179</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>555</v>
+        <v>657</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>656</v>
+        <v>352</v>
       </c>
       <c r="H43" s="7">
         <v>5</v>
@@ -7683,13 +7719,13 @@
         <v>3815</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>587</v>
+        <v>659</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>549</v>
+        <v>660</v>
       </c>
       <c r="M43" s="7">
         <v>15</v>
@@ -7698,13 +7734,13 @@
         <v>13653</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>586</v>
+        <v>221</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>144</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7719,13 +7755,13 @@
         <v>18976</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>359</v>
+        <v>662</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="H44" s="7">
         <v>13</v>
@@ -7734,13 +7770,13 @@
         <v>10358</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>583</v>
+        <v>664</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>432</v>
+        <v>665</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>391</v>
+        <v>581</v>
       </c>
       <c r="M44" s="7">
         <v>30</v>
@@ -7749,13 +7785,13 @@
         <v>29334</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>507</v>
+        <v>469</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7823,13 +7859,13 @@
         <v>231788</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="H46" s="7">
         <v>404</v>
@@ -7838,13 +7874,13 @@
         <v>339606</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="M46" s="7">
         <v>573</v>
@@ -7853,13 +7889,13 @@
         <v>571393</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>246</v>
+        <v>676</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7874,13 +7910,13 @@
         <v>520610</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>492</v>
+        <v>678</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
       <c r="H47" s="7">
         <v>551</v>
@@ -7889,13 +7925,13 @@
         <v>446560</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="M47" s="7">
         <v>1035</v>
@@ -7904,13 +7940,13 @@
         <v>967170</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>676</v>
+        <v>684</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7925,13 +7961,13 @@
         <v>75938</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>679</v>
+        <v>687</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="H48" s="7">
         <v>66</v>
@@ -7940,13 +7976,13 @@
         <v>52295</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>91</v>
+        <v>690</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="M48" s="7">
         <v>140</v>
@@ -7955,13 +7991,13 @@
         <v>128233</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>439</v>
+        <v>410</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>683</v>
+        <v>692</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>684</v>
+        <v>693</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7976,13 +8012,13 @@
         <v>16046</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>355</v>
+        <v>694</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>360</v>
+        <v>695</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>685</v>
+        <v>89</v>
       </c>
       <c r="H49" s="7">
         <v>29</v>
@@ -7991,13 +8027,13 @@
         <v>19377</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>686</v>
+        <v>696</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>687</v>
+        <v>697</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>688</v>
+        <v>698</v>
       </c>
       <c r="M49" s="7">
         <v>49</v>
@@ -8006,13 +8042,13 @@
         <v>35423</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>689</v>
+        <v>560</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>218</v>
+        <v>699</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -8027,13 +8063,13 @@
         <v>14354</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>353</v>
+        <v>145</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="H50" s="7">
         <v>11</v>
@@ -8042,13 +8078,13 @@
         <v>7834</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>691</v>
+        <v>701</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>693</v>
+        <v>146</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>655</v>
+        <v>702</v>
       </c>
       <c r="M50" s="7">
         <v>25</v>
@@ -8057,13 +8093,13 @@
         <v>22188</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>583</v>
+        <v>664</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -8131,13 +8167,13 @@
         <v>797825</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="H52" s="7">
         <v>1572</v>
@@ -8146,13 +8182,13 @@
         <v>1187704</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>334</v>
+        <v>709</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="M52" s="7">
         <v>2282</v>
@@ -8161,13 +8197,13 @@
         <v>1985529</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>701</v>
+        <v>171</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -8182,13 +8218,13 @@
         <v>1720673</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>319</v>
+        <v>714</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>705</v>
+        <v>715</v>
       </c>
       <c r="H53" s="7">
         <v>2731</v>
@@ -8197,13 +8233,13 @@
         <v>1987150</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>706</v>
+        <v>716</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>707</v>
+        <v>717</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>708</v>
+        <v>718</v>
       </c>
       <c r="M53" s="7">
         <v>4424</v>
@@ -8212,13 +8248,13 @@
         <v>3707824</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>709</v>
+        <v>719</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>710</v>
+        <v>720</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>711</v>
+        <v>721</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -8233,13 +8269,13 @@
         <v>691318</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>713</v>
+        <v>723</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>714</v>
+        <v>724</v>
       </c>
       <c r="H54" s="7">
         <v>810</v>
@@ -8248,13 +8284,13 @@
         <v>482799</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>715</v>
+        <v>725</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>716</v>
+        <v>726</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>717</v>
+        <v>727</v>
       </c>
       <c r="M54" s="7">
         <v>1570</v>
@@ -8263,13 +8299,13 @@
         <v>1174118</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>718</v>
+        <v>728</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>719</v>
+        <v>729</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>720</v>
+        <v>730</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -8284,13 +8320,13 @@
         <v>51099</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>721</v>
+        <v>434</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>722</v>
+        <v>731</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
       <c r="H55" s="7">
         <v>70</v>
@@ -8299,13 +8335,13 @@
         <v>43465</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>724</v>
+        <v>733</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>474</v>
+        <v>701</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="M55" s="7">
         <v>132</v>
@@ -8314,13 +8350,13 @@
         <v>94564</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>552</v>
+        <v>735</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>655</v>
+        <v>736</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -8335,13 +8371,13 @@
         <v>109214</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>514</v>
+        <v>737</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>218</v>
+        <v>738</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>481</v>
+        <v>739</v>
       </c>
       <c r="H56" s="7">
         <v>140</v>
@@ -8350,13 +8386,13 @@
         <v>83429</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>726</v>
+        <v>740</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>727</v>
+        <v>305</v>
       </c>
       <c r="M56" s="7">
         <v>270</v>
@@ -8365,13 +8401,13 @@
         <v>192643</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>728</v>
+        <v>186</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>661</v>
+        <v>182</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8427,7 +8463,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19E-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19E-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC788E72-7E54-4743-8C94-818B35766064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C60F27D-5E8E-4364-B68A-73B1856646E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E677B5E4-3192-4A8F-9CB9-A9FFC7805DE1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4FE78534-D572-4AE5-ADD0-96FAF255F057}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="741">
-  <si>
-    <t>Población según el número de veces que se cepilla los dientes al día en 2015 (Tasa respuesta: 97,38%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="726">
+  <si>
+    <t>Población según el número de veces que se cepilla los dientes al día en 2016 (Tasa respuesta: 97,38%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -75,28 +75,28 @@
     <t>23,11%</t>
   </si>
   <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
   </si>
   <si>
     <t>38,42%</t>
   </si>
   <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
   </si>
   <si>
     <t>30,72%</t>
   </si>
   <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
   </si>
   <si>
     <t>Dos veces al dia</t>
@@ -105,2161 +105,2116 @@
     <t>32,79%</t>
   </si>
   <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
   </si>
   <si>
     <t>40,11%</t>
   </si>
   <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>Una vez al dia</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente/no todos los dias</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
     <t>34,36%</t>
   </si>
   <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>Una vez al dia</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el número de veces que se cepilla los dientes al día en 2023 (Tasa respuesta: 99,26%)</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
   </si>
   <si>
     <t>6,76%</t>
   </si>
   <si>
-    <t>Ocasionalmente/no todos los dias</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
   </si>
   <si>
     <t>3,07%</t>
   </si>
   <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
   </si>
   <si>
     <t>27,75%</t>
   </si>
   <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
   </si>
   <si>
     <t>2,65%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el número de veces que se cepilla los dientes al día en 2023 (Tasa respuesta: 99,26%)</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
   </si>
 </sst>
 </file>
@@ -2671,7 +2626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57009BD7-50C3-4AEC-A592-8F96E853DA1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A30A5DF-7480-46AD-B29A-BCD030C3014F}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3020,7 +2975,7 @@
         <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>24</v>
@@ -3029,13 +2984,13 @@
         <v>26747</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3050,13 +3005,13 @@
         <v>287602</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>273</v>
@@ -3065,13 +3020,13 @@
         <v>284298</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>533</v>
@@ -3080,18 +3035,18 @@
         <v>571901</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3103,13 +3058,13 @@
         <v>173266</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>219</v>
@@ -3118,13 +3073,13 @@
         <v>230139</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>380</v>
@@ -3133,13 +3088,13 @@
         <v>403405</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,13 +3109,13 @@
         <v>139929</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>142</v>
@@ -3169,13 +3124,13 @@
         <v>151171</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>274</v>
@@ -3184,13 +3139,13 @@
         <v>291100</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3205,13 +3160,13 @@
         <v>115502</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>79</v>
@@ -3220,13 +3175,13 @@
         <v>86719</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>189</v>
@@ -3235,13 +3190,13 @@
         <v>202222</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3256,13 +3211,13 @@
         <v>13629</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -3274,10 +3229,10 @@
         <v>54</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
@@ -3286,13 +3241,13 @@
         <v>24619</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3307,13 +3262,13 @@
         <v>40607</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>23</v>
@@ -3322,13 +3277,13 @@
         <v>27411</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>62</v>
@@ -3337,13 +3292,13 @@
         <v>68017</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3358,13 +3313,13 @@
         <v>482934</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>471</v>
@@ -3373,13 +3328,13 @@
         <v>506429</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>927</v>
@@ -3388,18 +3343,18 @@
         <v>989362</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3411,13 +3366,13 @@
         <v>172480</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>226</v>
@@ -3426,13 +3381,13 @@
         <v>227219</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>406</v>
@@ -3441,13 +3396,13 @@
         <v>399699</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3462,13 +3417,13 @@
         <v>113507</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>79</v>
@@ -3477,13 +3432,13 @@
         <v>81539</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>200</v>
@@ -3492,13 +3447,13 @@
         <v>195046</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3513,13 +3468,13 @@
         <v>24176</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>20</v>
@@ -3528,13 +3483,13 @@
         <v>18949</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>46</v>
@@ -3543,13 +3498,13 @@
         <v>43125</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3564,13 +3519,13 @@
         <v>3127</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -3579,13 +3534,13 @@
         <v>3244</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -3594,13 +3549,13 @@
         <v>6371</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3615,13 +3570,13 @@
         <v>865</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -3630,13 +3585,13 @@
         <v>1821</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -3645,10 +3600,10 @@
         <v>2686</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>147</v>
@@ -3666,13 +3621,13 @@
         <v>314154</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>329</v>
@@ -3681,13 +3636,13 @@
         <v>332772</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>660</v>
@@ -3696,13 +3651,13 @@
         <v>646926</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3749,13 +3704,13 @@
         <v>255917</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3770,13 +3725,13 @@
         <v>105704</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H23" s="7">
         <v>132</v>
@@ -3785,13 +3740,13 @@
         <v>141714</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>232</v>
@@ -3800,13 +3755,13 @@
         <v>247419</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3821,13 +3776,13 @@
         <v>104202</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H24" s="7">
         <v>79</v>
@@ -3836,10 +3791,10 @@
         <v>86767</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>171</v>
@@ -3887,13 +3842,13 @@
         <v>1205</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M25" s="7">
         <v>13</v>
@@ -3902,13 +3857,13 @@
         <v>13717</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3923,13 +3878,13 @@
         <v>35210</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H26" s="7">
         <v>8</v>
@@ -3938,13 +3893,13 @@
         <v>8951</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>46</v>
+        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>43</v>
@@ -3953,13 +3908,13 @@
         <v>44161</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3974,13 +3929,13 @@
         <v>366896</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>356</v>
@@ -3989,13 +3944,13 @@
         <v>385287</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>707</v>
@@ -4004,18 +3959,18 @@
         <v>752183</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4027,13 +3982,13 @@
         <v>53829</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H28" s="7">
         <v>60</v>
@@ -4042,13 +3997,13 @@
         <v>57062</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M28" s="7">
         <v>112</v>
@@ -4057,13 +4012,13 @@
         <v>110892</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4078,13 +4033,13 @@
         <v>74278</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H29" s="7">
         <v>98</v>
@@ -4093,13 +4048,13 @@
         <v>95372</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M29" s="7">
         <v>173</v>
@@ -4108,13 +4063,13 @@
         <v>169650</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4129,13 +4084,13 @@
         <v>71208</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H30" s="7">
         <v>54</v>
@@ -4144,13 +4099,13 @@
         <v>53480</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M30" s="7">
         <v>127</v>
@@ -4159,13 +4114,13 @@
         <v>124687</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4180,13 +4135,13 @@
         <v>960</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>89</v>
+        <v>218</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -4195,13 +4150,13 @@
         <v>5779</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M31" s="7">
         <v>6</v>
@@ -4210,13 +4165,13 @@
         <v>6739</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4231,13 +4186,13 @@
         <v>5530</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -4246,13 +4201,13 @@
         <v>3203</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M32" s="7">
         <v>7</v>
@@ -4261,13 +4216,13 @@
         <v>8733</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>232</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,13 +4237,13 @@
         <v>205806</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H33" s="7">
         <v>219</v>
@@ -4297,13 +4252,13 @@
         <v>214896</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M33" s="7">
         <v>425</v>
@@ -4312,18 +4267,18 @@
         <v>420702</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4335,13 +4290,13 @@
         <v>26920</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H34" s="7">
         <v>35</v>
@@ -4350,13 +4305,13 @@
         <v>35719</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>237</v>
+        <v>35</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="M34" s="7">
         <v>61</v>
@@ -4365,13 +4320,13 @@
         <v>62639</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4386,13 +4341,13 @@
         <v>65992</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H35" s="7">
         <v>93</v>
@@ -4401,13 +4356,13 @@
         <v>93037</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="M35" s="7">
         <v>158</v>
@@ -4416,13 +4371,13 @@
         <v>159030</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4437,13 +4392,13 @@
         <v>82971</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>252</v>
+        <v>28</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="H36" s="7">
         <v>82</v>
@@ -4452,13 +4407,13 @@
         <v>84915</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="M36" s="7">
         <v>165</v>
@@ -4467,13 +4422,13 @@
         <v>167886</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4488,13 +4443,13 @@
         <v>2677</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>262</v>
+        <v>57</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -4503,13 +4458,13 @@
         <v>1194</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="M37" s="7">
         <v>4</v>
@@ -4518,13 +4473,13 @@
         <v>3871</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4539,13 +4494,13 @@
         <v>83614</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>269</v>
+        <v>190</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="H38" s="7">
         <v>51</v>
@@ -4554,13 +4509,13 @@
         <v>57329</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>198</v>
+        <v>265</v>
       </c>
       <c r="M38" s="7">
         <v>132</v>
@@ -4569,13 +4524,13 @@
         <v>140944</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>17</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4590,13 +4545,13 @@
         <v>262175</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H39" s="7">
         <v>262</v>
@@ -4605,13 +4560,13 @@
         <v>272194</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M39" s="7">
         <v>520</v>
@@ -4620,18 +4575,18 @@
         <v>534369</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -4643,13 +4598,13 @@
         <v>160405</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="H40" s="7">
         <v>221</v>
@@ -4658,13 +4613,13 @@
         <v>233522</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>28</v>
+        <v>274</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="M40" s="7">
         <v>360</v>
@@ -4673,13 +4628,13 @@
         <v>393927</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>76</v>
+        <v>278</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4694,13 +4649,13 @@
         <v>160573</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>284</v>
+        <v>169</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="H41" s="7">
         <v>189</v>
@@ -4709,13 +4664,13 @@
         <v>202277</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>286</v>
+        <v>62</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c r="M41" s="7">
         <v>335</v>
@@ -4724,13 +4679,13 @@
         <v>362850</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4745,13 +4700,13 @@
         <v>221587</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="H42" s="7">
         <v>154</v>
@@ -4760,13 +4715,13 @@
         <v>164129</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>297</v>
+        <v>120</v>
       </c>
       <c r="M42" s="7">
         <v>346</v>
@@ -4775,13 +4730,13 @@
         <v>385715</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4796,13 +4751,13 @@
         <v>35296</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="H43" s="7">
         <v>23</v>
@@ -4811,13 +4766,13 @@
         <v>26438</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="M43" s="7">
         <v>54</v>
@@ -4826,13 +4781,13 @@
         <v>61734</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4847,13 +4802,13 @@
         <v>34580</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="H44" s="7">
         <v>13</v>
@@ -4862,13 +4817,13 @@
         <v>13408</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>101</v>
+        <v>307</v>
       </c>
       <c r="M44" s="7">
         <v>43</v>
@@ -4880,10 +4835,10 @@
         <v>308</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4898,13 +4853,13 @@
         <v>612441</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H45" s="7">
         <v>600</v>
@@ -4913,13 +4868,13 @@
         <v>639773</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M45" s="7">
         <v>1138</v>
@@ -4928,18 +4883,18 @@
         <v>1252214</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -4951,13 +4906,13 @@
         <v>397176</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H46" s="7">
         <v>417</v>
@@ -4966,13 +4921,13 @@
         <v>458610</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="M46" s="7">
         <v>796</v>
@@ -4981,13 +4936,13 @@
         <v>855786</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -5002,13 +4957,13 @@
         <v>236267</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="H47" s="7">
         <v>232</v>
@@ -5017,13 +4972,13 @@
         <v>251693</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="M47" s="7">
         <v>458</v>
@@ -5032,13 +4987,13 @@
         <v>487960</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>200</v>
+        <v>327</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -5053,13 +5008,13 @@
         <v>100024</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="H48" s="7">
         <v>89</v>
@@ -5068,13 +5023,13 @@
         <v>97300</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="M48" s="7">
         <v>189</v>
@@ -5083,13 +5038,13 @@
         <v>197325</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -5104,13 +5059,13 @@
         <v>9940</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>186</v>
+        <v>54</v>
       </c>
       <c r="H49" s="7">
         <v>6</v>
@@ -5119,13 +5074,13 @@
         <v>7081</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>348</v>
+        <v>218</v>
       </c>
       <c r="M49" s="7">
         <v>17</v>
@@ -5134,13 +5089,13 @@
         <v>17021</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>349</v>
+        <v>45</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -5155,13 +5110,13 @@
         <v>22553</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="H50" s="7">
         <v>5</v>
@@ -5170,13 +5125,13 @@
         <v>5307</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>135</v>
+        <v>349</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="M50" s="7">
         <v>27</v>
@@ -5185,13 +5140,13 @@
         <v>27861</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>357</v>
+        <v>260</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -5206,13 +5161,13 @@
         <v>765961</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H51" s="7">
         <v>749</v>
@@ -5221,13 +5176,13 @@
         <v>819992</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M51" s="7">
         <v>1487</v>
@@ -5236,13 +5191,13 @@
         <v>1585953</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -5259,13 +5214,13 @@
         <v>1159819</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="H52" s="7">
         <v>1420</v>
@@ -5274,13 +5229,13 @@
         <v>1498161</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="M52" s="7">
         <v>2517</v>
@@ -5289,13 +5244,13 @@
         <v>2657980</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>367</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -5310,13 +5265,13 @@
         <v>990542</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="H53" s="7">
         <v>1071</v>
@@ -5325,13 +5280,13 @@
         <v>1130839</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="M53" s="7">
         <v>2020</v>
@@ -5340,13 +5295,13 @@
         <v>2121381</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>117</v>
+        <v>367</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -5361,13 +5316,13 @@
         <v>805598</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>378</v>
+        <v>245</v>
       </c>
       <c r="H54" s="7">
         <v>605</v>
@@ -5376,13 +5331,13 @@
         <v>640242</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="M54" s="7">
         <v>1371</v>
@@ -5391,13 +5346,13 @@
         <v>1445840</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>383</v>
+        <v>85</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>384</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -5412,13 +5367,13 @@
         <v>98463</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="H55" s="7">
         <v>53</v>
@@ -5427,13 +5382,13 @@
         <v>62807</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="M55" s="7">
         <v>148</v>
@@ -5442,13 +5397,13 @@
         <v>161270</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -5463,13 +5418,13 @@
         <v>243546</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="H56" s="7">
         <v>110</v>
@@ -5478,13 +5433,13 @@
         <v>123593</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>93</v>
+        <v>388</v>
       </c>
       <c r="M56" s="7">
         <v>341</v>
@@ -5493,13 +5448,13 @@
         <v>367138</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -5514,13 +5469,13 @@
         <v>3297968</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H57" s="7">
         <v>3259</v>
@@ -5529,13 +5484,13 @@
         <v>3455642</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M57" s="7">
         <v>6397</v>
@@ -5544,18 +5499,18 @@
         <v>6753610</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -5579,7 +5534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E7BDC5-62E5-459B-9F05-120D78D7DB95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21631FC1-FDA4-4033-B358-AABA3DBB4C5B}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5596,7 +5551,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5703,13 +5658,13 @@
         <v>20364</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="H4" s="7">
         <v>48</v>
@@ -5718,13 +5673,13 @@
         <v>30199</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="M4" s="7">
         <v>68</v>
@@ -5733,13 +5688,13 @@
         <v>50563</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5754,13 +5709,13 @@
         <v>158818</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="H5" s="7">
         <v>334</v>
@@ -5769,13 +5724,13 @@
         <v>171471</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="M5" s="7">
         <v>519</v>
@@ -5784,13 +5739,13 @@
         <v>330289</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5805,13 +5760,13 @@
         <v>70157</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="H6" s="7">
         <v>137</v>
@@ -5820,13 +5775,13 @@
         <v>58370</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>426</v>
+        <v>215</v>
       </c>
       <c r="M6" s="7">
         <v>248</v>
@@ -5835,13 +5790,13 @@
         <v>128527</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5856,13 +5811,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -5871,13 +5826,13 @@
         <v>1209</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -5886,13 +5841,13 @@
         <v>1209</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>435</v>
+        <v>133</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5907,13 +5862,13 @@
         <v>10801</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
@@ -5922,13 +5877,13 @@
         <v>9400</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>225</v>
+        <v>307</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="M8" s="7">
         <v>29</v>
@@ -5937,13 +5892,13 @@
         <v>20201</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5958,13 +5913,13 @@
         <v>260139</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>537</v>
@@ -5973,13 +5928,13 @@
         <v>270649</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M9" s="7">
         <v>867</v>
@@ -5988,18 +5943,18 @@
         <v>530788</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -6011,13 +5966,13 @@
         <v>69359</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="H10" s="7">
         <v>117</v>
@@ -6026,13 +5981,13 @@
         <v>100240</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="M10" s="7">
         <v>167</v>
@@ -6041,13 +5996,13 @@
         <v>169599</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6062,13 +6017,13 @@
         <v>246424</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="H11" s="7">
         <v>400</v>
@@ -6077,13 +6032,13 @@
         <v>315611</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="M11" s="7">
         <v>570</v>
@@ -6092,13 +6047,13 @@
         <v>562035</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6113,13 +6068,13 @@
         <v>173938</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>160</v>
+        <v>452</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="H12" s="7">
         <v>166</v>
@@ -6128,13 +6083,13 @@
         <v>115392</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>193</v>
+        <v>455</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="M12" s="7">
         <v>303</v>
@@ -6143,13 +6098,13 @@
         <v>289330</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6164,13 +6119,13 @@
         <v>6789</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -6179,13 +6134,13 @@
         <v>2687</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>224</v>
+        <v>462</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -6194,13 +6149,13 @@
         <v>9475</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>231</v>
+        <v>465</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6215,13 +6170,13 @@
         <v>22787</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="H14" s="7">
         <v>27</v>
@@ -6230,13 +6185,13 @@
         <v>19190</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>307</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="M14" s="7">
         <v>46</v>
@@ -6245,13 +6200,13 @@
         <v>41977</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>478</v>
+        <v>303</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>479</v>
+        <v>134</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>480</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6266,13 +6221,13 @@
         <v>519297</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
         <v>714</v>
@@ -6281,13 +6236,13 @@
         <v>553120</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
         <v>1096</v>
@@ -6296,18 +6251,18 @@
         <v>1072417</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6319,13 +6274,13 @@
         <v>52680</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="H16" s="7">
         <v>121</v>
@@ -6334,13 +6289,13 @@
         <v>96125</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>484</v>
+        <v>250</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>485</v>
+        <v>197</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>486</v>
+        <v>365</v>
       </c>
       <c r="M16" s="7">
         <v>174</v>
@@ -6349,13 +6304,13 @@
         <v>148804</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6370,13 +6325,13 @@
         <v>139001</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>491</v>
+        <v>262</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="H17" s="7">
         <v>252</v>
@@ -6385,13 +6340,13 @@
         <v>178509</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="M17" s="7">
         <v>398</v>
@@ -6400,13 +6355,13 @@
         <v>317509</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6421,13 +6376,13 @@
         <v>102067</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="H18" s="7">
         <v>119</v>
@@ -6436,13 +6391,13 @@
         <v>72230</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="M18" s="7">
         <v>242</v>
@@ -6451,13 +6406,13 @@
         <v>174298</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6472,13 +6427,13 @@
         <v>7914</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>510</v>
+        <v>388</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -6487,13 +6442,13 @@
         <v>5067</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
@@ -6502,13 +6457,13 @@
         <v>12981</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>515</v>
+        <v>147</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6523,13 +6478,13 @@
         <v>16930</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>517</v>
+        <v>223</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>518</v>
+        <v>304</v>
       </c>
       <c r="H20" s="7">
         <v>31</v>
@@ -6538,13 +6493,13 @@
         <v>18735</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>519</v>
+        <v>501</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="M20" s="7">
         <v>54</v>
@@ -6553,13 +6508,13 @@
         <v>35665</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>522</v>
+        <v>504</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>49</v>
+        <v>506</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6574,13 +6529,13 @@
         <v>318591</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
         <v>531</v>
@@ -6589,13 +6544,13 @@
         <v>370666</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
         <v>887</v>
@@ -6604,13 +6559,13 @@
         <v>689257</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6627,13 +6582,13 @@
         <v>131399</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>524</v>
+        <v>507</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>525</v>
+        <v>508</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="H22" s="7">
         <v>265</v>
@@ -6642,13 +6597,13 @@
         <v>212568</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>528</v>
+        <v>511</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
       <c r="M22" s="7">
         <v>365</v>
@@ -6657,13 +6612,13 @@
         <v>343967</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>530</v>
+        <v>513</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>531</v>
+        <v>514</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>532</v>
+        <v>515</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6678,13 +6633,13 @@
         <v>142296</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>534</v>
+        <v>517</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
       <c r="H23" s="7">
         <v>229</v>
@@ -6693,13 +6648,13 @@
         <v>158984</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>536</v>
+        <v>519</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>537</v>
+        <v>520</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>538</v>
+        <v>521</v>
       </c>
       <c r="M23" s="7">
         <v>363</v>
@@ -6708,13 +6663,13 @@
         <v>301280</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>539</v>
+        <v>522</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>540</v>
+        <v>523</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6729,13 +6684,13 @@
         <v>35477</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>542</v>
+        <v>525</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>544</v>
+        <v>527</v>
       </c>
       <c r="H24" s="7">
         <v>70</v>
@@ -6744,13 +6699,13 @@
         <v>40362</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>545</v>
+        <v>528</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>546</v>
+        <v>529</v>
       </c>
       <c r="M24" s="7">
         <v>109</v>
@@ -6759,13 +6714,13 @@
         <v>75839</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>547</v>
+        <v>530</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>548</v>
+        <v>531</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>549</v>
+        <v>532</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6780,13 +6735,13 @@
         <v>2396</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>550</v>
+        <v>533</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>551</v>
+        <v>534</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>315</v>
+        <v>535</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -6795,13 +6750,13 @@
         <v>807</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -6810,13 +6765,13 @@
         <v>3203</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6831,13 +6786,13 @@
         <v>4877</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>262</v>
+        <v>540</v>
       </c>
       <c r="H26" s="7">
         <v>10</v>
@@ -6846,13 +6801,13 @@
         <v>4510</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="M26" s="7">
         <v>17</v>
@@ -6861,13 +6816,13 @@
         <v>9387</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>550</v>
+        <v>533</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6882,13 +6837,13 @@
         <v>316445</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>576</v>
@@ -6897,13 +6852,13 @@
         <v>417232</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>859</v>
@@ -6912,18 +6867,18 @@
         <v>733677</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6935,13 +6890,13 @@
         <v>79434</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="H28" s="7">
         <v>201</v>
@@ -6950,13 +6905,13 @@
         <v>95832</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="M28" s="7">
         <v>315</v>
@@ -6965,13 +6920,13 @@
         <v>175266</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>157</v>
+        <v>553</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6986,13 +6941,13 @@
         <v>113257</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="H29" s="7">
         <v>279</v>
@@ -7001,13 +6956,13 @@
         <v>130967</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="M29" s="7">
         <v>438</v>
@@ -7016,13 +6971,13 @@
         <v>244223</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7037,13 +6992,13 @@
         <v>3042</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="H30" s="7">
         <v>6</v>
@@ -7052,13 +7007,13 @@
         <v>2624</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="M30" s="7">
         <v>10</v>
@@ -7067,13 +7022,13 @@
         <v>5666</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>583</v>
+        <v>340</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7088,13 +7043,13 @@
         <v>508</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>586</v>
+        <v>350</v>
       </c>
       <c r="H31" s="7">
         <v>3</v>
@@ -7103,13 +7058,13 @@
         <v>1165</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>586</v>
+        <v>350</v>
       </c>
       <c r="M31" s="7">
         <v>4</v>
@@ -7118,13 +7073,13 @@
         <v>1674</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>551</v>
+        <v>534</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7139,13 +7094,13 @@
         <v>506</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -7154,13 +7109,13 @@
         <v>401</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>231</v>
+        <v>465</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -7169,13 +7124,13 @@
         <v>907</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>583</v>
+        <v>340</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7190,13 +7145,13 @@
         <v>196748</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H33" s="7">
         <v>490</v>
@@ -7205,13 +7160,13 @@
         <v>230989</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M33" s="7">
         <v>769</v>
@@ -7220,18 +7175,18 @@
         <v>427736</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -7243,13 +7198,13 @@
         <v>19975</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="H34" s="7">
         <v>41</v>
@@ -7258,13 +7213,13 @@
         <v>31174</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="M34" s="7">
         <v>61</v>
@@ -7273,13 +7228,13 @@
         <v>51149</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7294,13 +7249,13 @@
         <v>129192</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="H35" s="7">
         <v>216</v>
@@ -7309,13 +7264,13 @@
         <v>146639</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>319</v>
+        <v>589</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
       <c r="M35" s="7">
         <v>370</v>
@@ -7324,13 +7279,13 @@
         <v>275831</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7345,13 +7300,13 @@
         <v>99683</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="H36" s="7">
         <v>155</v>
@@ -7360,13 +7315,13 @@
         <v>75471</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>613</v>
+        <v>598</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>614</v>
+        <v>599</v>
       </c>
       <c r="M36" s="7">
         <v>305</v>
@@ -7375,13 +7330,13 @@
         <v>175154</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>615</v>
+        <v>600</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>616</v>
+        <v>601</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7396,13 +7351,13 @@
         <v>7609</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>617</v>
+        <v>602</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>619</v>
+        <v>604</v>
       </c>
       <c r="H37" s="7">
         <v>16</v>
@@ -7411,13 +7366,13 @@
         <v>9338</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>620</v>
+        <v>605</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>621</v>
+        <v>606</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>622</v>
+        <v>607</v>
       </c>
       <c r="M37" s="7">
         <v>27</v>
@@ -7426,13 +7381,13 @@
         <v>16946</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>136</v>
+        <v>608</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>623</v>
+        <v>382</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>624</v>
+        <v>609</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7447,13 +7402,13 @@
         <v>19983</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>625</v>
+        <v>610</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>626</v>
+        <v>611</v>
       </c>
       <c r="H38" s="7">
         <v>32</v>
@@ -7462,13 +7417,13 @@
         <v>13001</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>627</v>
+        <v>612</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>628</v>
+        <v>613</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="M38" s="7">
         <v>67</v>
@@ -7477,13 +7432,13 @@
         <v>32984</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>630</v>
+        <v>615</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>631</v>
+        <v>616</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>632</v>
+        <v>617</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7498,13 +7453,13 @@
         <v>276441</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H39" s="7">
         <v>460</v>
@@ -7513,13 +7468,13 @@
         <v>275622</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M39" s="7">
         <v>830</v>
@@ -7528,18 +7483,18 @@
         <v>552064</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -7551,13 +7506,13 @@
         <v>192827</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>633</v>
+        <v>618</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>634</v>
+        <v>265</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>288</v>
+        <v>619</v>
       </c>
       <c r="H40" s="7">
         <v>375</v>
@@ -7566,13 +7521,13 @@
         <v>281960</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
       <c r="M40" s="7">
         <v>559</v>
@@ -7581,13 +7536,13 @@
         <v>474787</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>638</v>
+        <v>623</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>639</v>
+        <v>624</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>640</v>
+        <v>625</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7602,13 +7557,13 @@
         <v>271076</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>641</v>
+        <v>626</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="H41" s="7">
         <v>470</v>
@@ -7617,13 +7572,13 @@
         <v>438409</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>644</v>
+        <v>629</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="M41" s="7">
         <v>731</v>
@@ -7632,13 +7587,13 @@
         <v>709485</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>647</v>
+        <v>632</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>648</v>
+        <v>633</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7653,13 +7608,13 @@
         <v>131017</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>649</v>
+        <v>634</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>650</v>
+        <v>635</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>651</v>
+        <v>636</v>
       </c>
       <c r="H42" s="7">
         <v>91</v>
@@ -7668,13 +7623,13 @@
         <v>66055</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>652</v>
+        <v>637</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>653</v>
+        <v>638</v>
       </c>
       <c r="M42" s="7">
         <v>213</v>
@@ -7683,13 +7638,13 @@
         <v>197072</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>654</v>
+        <v>639</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>655</v>
+        <v>640</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>656</v>
+        <v>641</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7704,13 +7659,13 @@
         <v>9838</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>179</v>
+        <v>642</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>657</v>
+        <v>643</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="H43" s="7">
         <v>5</v>
@@ -7719,13 +7674,13 @@
         <v>3815</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>658</v>
+        <v>644</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>659</v>
+        <v>645</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>660</v>
+        <v>646</v>
       </c>
       <c r="M43" s="7">
         <v>15</v>
@@ -7734,13 +7689,13 @@
         <v>13653</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>221</v>
+        <v>647</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7755,13 +7710,13 @@
         <v>18976</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>182</v>
+        <v>649</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="H44" s="7">
         <v>13</v>
@@ -7770,13 +7725,13 @@
         <v>10358</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>665</v>
+        <v>343</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="M44" s="7">
         <v>30</v>
@@ -7785,13 +7740,13 @@
         <v>29334</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7806,13 +7761,13 @@
         <v>623734</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H45" s="7">
         <v>954</v>
@@ -7821,13 +7776,13 @@
         <v>800598</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M45" s="7">
         <v>1548</v>
@@ -7836,18 +7791,18 @@
         <v>1424332</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -7859,13 +7814,13 @@
         <v>231788</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="H46" s="7">
         <v>404</v>
@@ -7874,13 +7829,13 @@
         <v>339606</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
       <c r="M46" s="7">
         <v>573</v>
@@ -7889,13 +7844,13 @@
         <v>571393</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7910,13 +7865,13 @@
         <v>520610</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="H47" s="7">
         <v>551</v>
@@ -7925,13 +7880,13 @@
         <v>446560</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="M47" s="7">
         <v>1035</v>
@@ -7940,13 +7895,13 @@
         <v>967170</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7961,13 +7916,13 @@
         <v>75938</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="H48" s="7">
         <v>66</v>
@@ -7976,13 +7931,13 @@
         <v>52295</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="M48" s="7">
         <v>140</v>
@@ -7991,13 +7946,13 @@
         <v>128233</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -8012,13 +7967,13 @@
         <v>16046</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>694</v>
+        <v>346</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>695</v>
+        <v>306</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H49" s="7">
         <v>29</v>
@@ -8027,13 +7982,13 @@
         <v>19377</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>696</v>
+        <v>681</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>697</v>
+        <v>682</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>698</v>
+        <v>683</v>
       </c>
       <c r="M49" s="7">
         <v>49</v>
@@ -8042,13 +7997,13 @@
         <v>35423</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>697</v>
+        <v>682</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>699</v>
+        <v>309</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -8063,13 +8018,13 @@
         <v>14354</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>145</v>
+        <v>344</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>700</v>
+        <v>684</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>699</v>
+        <v>309</v>
       </c>
       <c r="H50" s="7">
         <v>11</v>
@@ -8078,13 +8033,13 @@
         <v>7834</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>701</v>
+        <v>685</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>702</v>
+        <v>686</v>
       </c>
       <c r="M50" s="7">
         <v>25</v>
@@ -8093,13 +8048,13 @@
         <v>22188</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>703</v>
+        <v>687</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>704</v>
+        <v>688</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -8114,13 +8069,13 @@
         <v>858735</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H51" s="7">
         <v>1061</v>
@@ -8129,13 +8084,13 @@
         <v>865672</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M51" s="7">
         <v>1822</v>
@@ -8144,13 +8099,13 @@
         <v>1724407</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -8167,13 +8122,13 @@
         <v>797825</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>705</v>
+        <v>689</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>706</v>
+        <v>690</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>707</v>
+        <v>691</v>
       </c>
       <c r="H52" s="7">
         <v>1572</v>
@@ -8182,13 +8137,13 @@
         <v>1187704</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>708</v>
+        <v>692</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>709</v>
+        <v>693</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>710</v>
+        <v>694</v>
       </c>
       <c r="M52" s="7">
         <v>2282</v>
@@ -8197,13 +8152,13 @@
         <v>1985529</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>171</v>
+        <v>695</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>711</v>
+        <v>696</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>712</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -8218,13 +8173,13 @@
         <v>1720673</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>713</v>
+        <v>697</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>714</v>
+        <v>698</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>715</v>
+        <v>699</v>
       </c>
       <c r="H53" s="7">
         <v>2731</v>
@@ -8233,13 +8188,13 @@
         <v>1987150</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>716</v>
+        <v>700</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>717</v>
+        <v>701</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
       <c r="M53" s="7">
         <v>4424</v>
@@ -8248,13 +8203,13 @@
         <v>3707824</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>719</v>
+        <v>703</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>720</v>
+        <v>704</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -8269,13 +8224,13 @@
         <v>691318</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="H54" s="7">
         <v>810</v>
@@ -8284,13 +8239,13 @@
         <v>482799</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>727</v>
+        <v>711</v>
       </c>
       <c r="M54" s="7">
         <v>1570</v>
@@ -8299,13 +8254,13 @@
         <v>1174118</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>730</v>
+        <v>714</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -8320,13 +8275,13 @@
         <v>51099</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>731</v>
+        <v>715</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>732</v>
+        <v>716</v>
       </c>
       <c r="H55" s="7">
         <v>70</v>
@@ -8335,13 +8290,13 @@
         <v>43465</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>701</v>
+        <v>685</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
       <c r="M55" s="7">
         <v>132</v>
@@ -8350,13 +8305,13 @@
         <v>94564</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>735</v>
+        <v>719</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>736</v>
+        <v>720</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -8371,13 +8326,13 @@
         <v>109214</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>737</v>
+        <v>721</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>738</v>
+        <v>722</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="H56" s="7">
         <v>140</v>
@@ -8386,13 +8341,13 @@
         <v>83429</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>305</v>
+        <v>725</v>
       </c>
       <c r="M56" s="7">
         <v>270</v>
@@ -8401,13 +8356,13 @@
         <v>192643</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>182</v>
+        <v>649</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8422,13 +8377,13 @@
         <v>3370130</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H57" s="7">
         <v>5323</v>
@@ -8437,13 +8392,13 @@
         <v>3784548</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M57" s="7">
         <v>8678</v>
@@ -8452,18 +8407,18 @@
         <v>7154678</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19E-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19E-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C60F27D-5E8E-4364-B68A-73B1856646E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09D86E6F-2CB4-47DC-B2B3-45D8BCC70B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4FE78534-D572-4AE5-ADD0-96FAF255F057}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E0B848C4-F44E-4DA0-B2C2-B22E9BFC518D}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="729">
   <si>
     <t>Población según el número de veces que se cepilla los dientes al día en 2016 (Tasa respuesta: 97,38%)</t>
   </si>
@@ -75,10 +75,10 @@
     <t>23,11%</t>
   </si>
   <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
   </si>
   <si>
     <t>38,42%</t>
@@ -87,16 +87,16 @@
     <t>33,16%</t>
   </si>
   <si>
-    <t>44,56%</t>
+    <t>44,26%</t>
   </si>
   <si>
     <t>30,72%</t>
   </si>
   <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
   </si>
   <si>
     <t>Dos veces al dia</t>
@@ -105,2116 +105,2125 @@
     <t>32,79%</t>
   </si>
   <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
   </si>
   <si>
     <t>40,11%</t>
   </si>
   <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
   </si>
   <si>
     <t>36,43%</t>
   </si>
   <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>Una vez al dia</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente/no todos los dias</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
     <t>31,65%</t>
   </si>
   <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>Una vez al dia</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
   </si>
   <si>
     <t>13,12%</t>
   </si>
   <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
   </si>
   <si>
     <t>1,07%</t>
   </si>
   <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>Ocasionalmente/no todos los dias</t>
-  </si>
-  <si>
-    <t>7,16%</t>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el número de veces que se cepilla los dientes al día en 2023 (Tasa respuesta: 99,26%)</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
   </si>
   <si>
     <t>4,39%</t>
   </si>
   <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
   </si>
   <si>
     <t>2,81%</t>
   </si>
   <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
   </si>
   <si>
     <t>0,13%</t>
   </si>
   <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
   </si>
   <si>
     <t>0,64%</t>
   </si>
   <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
   </si>
   <si>
     <t>4,4%</t>
   </si>
   <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
   </si>
   <si>
     <t>1,51%</t>
   </si>
   <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
   </si>
   <si>
     <t>2,79%</t>
   </si>
   <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el número de veces que se cepilla los dientes al día en 2023 (Tasa respuesta: 99,26%)</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
   </si>
   <si>
     <t>1,52%</t>
   </si>
   <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
     <t>1,18%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
   </si>
   <si>
     <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>57,95%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
   </si>
 </sst>
 </file>
@@ -2626,7 +2635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A30A5DF-7480-46AD-B29A-BCD030C3014F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00D2105-C170-427A-BB97-FFBA2126006D}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2975,7 +2984,7 @@
         <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
         <v>24</v>
@@ -2984,13 +2993,13 @@
         <v>26747</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3005,13 +3014,13 @@
         <v>287602</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>273</v>
@@ -3020,13 +3029,13 @@
         <v>284298</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>533</v>
@@ -3035,18 +3044,18 @@
         <v>571901</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3058,13 +3067,13 @@
         <v>173266</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>219</v>
@@ -3073,13 +3082,13 @@
         <v>230139</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>380</v>
@@ -3088,13 +3097,13 @@
         <v>403405</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3109,13 +3118,13 @@
         <v>139929</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>142</v>
@@ -3124,13 +3133,13 @@
         <v>151171</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>274</v>
@@ -3139,13 +3148,13 @@
         <v>291100</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,13 +3169,13 @@
         <v>115502</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>79</v>
@@ -3175,13 +3184,13 @@
         <v>86719</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>189</v>
@@ -3190,13 +3199,13 @@
         <v>202222</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,13 +3220,13 @@
         <v>13629</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -3229,10 +3238,10 @@
         <v>54</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>22</v>
@@ -3241,13 +3250,13 @@
         <v>24619</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3262,13 +3271,13 @@
         <v>40607</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>23</v>
@@ -3277,13 +3286,13 @@
         <v>27411</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>62</v>
@@ -3292,13 +3301,13 @@
         <v>68017</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3313,13 +3322,13 @@
         <v>482934</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>471</v>
@@ -3328,13 +3337,13 @@
         <v>506429</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>927</v>
@@ -3343,18 +3352,18 @@
         <v>989362</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3366,13 +3375,13 @@
         <v>172480</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>226</v>
@@ -3381,13 +3390,13 @@
         <v>227219</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>406</v>
@@ -3396,13 +3405,13 @@
         <v>399699</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3417,13 +3426,13 @@
         <v>113507</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>79</v>
@@ -3432,13 +3441,13 @@
         <v>81539</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>200</v>
@@ -3447,13 +3456,13 @@
         <v>195046</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3468,13 +3477,13 @@
         <v>24176</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>20</v>
@@ -3483,13 +3492,13 @@
         <v>18949</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>46</v>
@@ -3498,13 +3507,13 @@
         <v>43125</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3519,13 +3528,13 @@
         <v>3127</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -3534,13 +3543,13 @@
         <v>3244</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -3549,13 +3558,13 @@
         <v>6371</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3570,13 +3579,13 @@
         <v>865</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -3585,13 +3594,13 @@
         <v>1821</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>144</v>
+        <v>90</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -3621,13 +3630,13 @@
         <v>314154</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>329</v>
@@ -3636,13 +3645,13 @@
         <v>332772</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>660</v>
@@ -3651,13 +3660,13 @@
         <v>646926</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3692,10 +3701,10 @@
         <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>239</v>
@@ -3704,7 +3713,7 @@
         <v>255917</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>155</v>
@@ -3779,10 +3788,10 @@
         <v>166</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H24" s="7">
         <v>79</v>
@@ -3791,13 +3800,13 @@
         <v>86767</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M24" s="7">
         <v>180</v>
@@ -3806,13 +3815,13 @@
         <v>190970</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3827,13 +3836,13 @@
         <v>12512</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -3842,13 +3851,13 @@
         <v>1205</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M25" s="7">
         <v>13</v>
@@ -3857,13 +3866,13 @@
         <v>13717</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3878,13 +3887,13 @@
         <v>35210</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H26" s="7">
         <v>8</v>
@@ -3893,13 +3902,13 @@
         <v>8951</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>43</v>
@@ -3908,13 +3917,13 @@
         <v>44161</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3929,13 +3938,13 @@
         <v>366896</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>356</v>
@@ -3944,13 +3953,13 @@
         <v>385287</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>707</v>
@@ -3959,18 +3968,18 @@
         <v>752183</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3982,13 +3991,13 @@
         <v>53829</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H28" s="7">
         <v>60</v>
@@ -3997,13 +4006,13 @@
         <v>57062</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M28" s="7">
         <v>112</v>
@@ -4012,13 +4021,13 @@
         <v>110892</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4033,13 +4042,13 @@
         <v>74278</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H29" s="7">
         <v>98</v>
@@ -4048,13 +4057,13 @@
         <v>95372</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M29" s="7">
         <v>173</v>
@@ -4063,13 +4072,13 @@
         <v>169650</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4084,13 +4093,13 @@
         <v>71208</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H30" s="7">
         <v>54</v>
@@ -4099,13 +4108,13 @@
         <v>53480</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M30" s="7">
         <v>127</v>
@@ -4114,13 +4123,13 @@
         <v>124687</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4135,13 +4144,13 @@
         <v>960</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -4150,13 +4159,13 @@
         <v>5779</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M31" s="7">
         <v>6</v>
@@ -4165,7 +4174,7 @@
         <v>6739</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>94</v>
+        <v>221</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>222</v>
@@ -4186,7 +4195,7 @@
         <v>5530</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>224</v>
@@ -4204,7 +4213,7 @@
         <v>226</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>227</v>
@@ -4219,10 +4228,10 @@
         <v>228</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>92</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4237,13 +4246,13 @@
         <v>205806</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
         <v>219</v>
@@ -4252,13 +4261,13 @@
         <v>214896</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>425</v>
@@ -4267,18 +4276,18 @@
         <v>420702</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4290,13 +4299,13 @@
         <v>26920</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H34" s="7">
         <v>35</v>
@@ -4305,13 +4314,13 @@
         <v>35719</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>35</v>
+        <v>235</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M34" s="7">
         <v>61</v>
@@ -4320,13 +4329,13 @@
         <v>62639</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4341,13 +4350,13 @@
         <v>65992</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H35" s="7">
         <v>93</v>
@@ -4356,13 +4365,13 @@
         <v>93037</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="M35" s="7">
         <v>158</v>
@@ -4371,13 +4380,13 @@
         <v>159030</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4392,13 +4401,13 @@
         <v>82971</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="H36" s="7">
         <v>82</v>
@@ -4407,13 +4416,13 @@
         <v>84915</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="M36" s="7">
         <v>165</v>
@@ -4422,13 +4431,13 @@
         <v>167886</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4443,13 +4452,13 @@
         <v>2677</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>139</v>
+        <v>259</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>57</v>
+        <v>260</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -4458,13 +4467,13 @@
         <v>1194</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="M37" s="7">
         <v>4</v>
@@ -4473,13 +4482,13 @@
         <v>3871</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4494,13 +4503,13 @@
         <v>83614</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>190</v>
+        <v>267</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="H38" s="7">
         <v>51</v>
@@ -4509,13 +4518,13 @@
         <v>57329</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>265</v>
+        <v>192</v>
       </c>
       <c r="M38" s="7">
         <v>132</v>
@@ -4524,13 +4533,13 @@
         <v>140944</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4545,13 +4554,13 @@
         <v>262175</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H39" s="7">
         <v>262</v>
@@ -4560,13 +4569,13 @@
         <v>272194</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M39" s="7">
         <v>520</v>
@@ -4575,18 +4584,18 @@
         <v>534369</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -4598,13 +4607,13 @@
         <v>160405</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>271</v>
+        <v>196</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="H40" s="7">
         <v>221</v>
@@ -4613,13 +4622,13 @@
         <v>233522</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M40" s="7">
         <v>360</v>
@@ -4628,13 +4637,13 @@
         <v>393927</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4649,13 +4658,13 @@
         <v>160573</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>169</v>
+        <v>283</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="H41" s="7">
         <v>189</v>
@@ -4664,13 +4673,13 @@
         <v>202277</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>62</v>
+        <v>285</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="M41" s="7">
         <v>335</v>
@@ -4679,13 +4688,13 @@
         <v>362850</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4700,13 +4709,13 @@
         <v>221587</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>287</v>
+        <v>204</v>
       </c>
       <c r="H42" s="7">
         <v>154</v>
@@ -4715,13 +4724,13 @@
         <v>164129</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>120</v>
+        <v>295</v>
       </c>
       <c r="M42" s="7">
         <v>346</v>
@@ -4730,13 +4739,13 @@
         <v>385715</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4751,13 +4760,13 @@
         <v>35296</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="H43" s="7">
         <v>23</v>
@@ -4766,13 +4775,13 @@
         <v>26438</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="M43" s="7">
         <v>54</v>
@@ -4781,13 +4790,13 @@
         <v>61734</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4802,13 +4811,13 @@
         <v>34580</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="H44" s="7">
         <v>13</v>
@@ -4817,13 +4826,13 @@
         <v>13408</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="M44" s="7">
         <v>43</v>
@@ -4832,13 +4841,13 @@
         <v>47988</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4853,13 +4862,13 @@
         <v>612441</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H45" s="7">
         <v>600</v>
@@ -4868,13 +4877,13 @@
         <v>639773</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M45" s="7">
         <v>1138</v>
@@ -4883,18 +4892,18 @@
         <v>1252214</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -4906,13 +4915,13 @@
         <v>397176</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="H46" s="7">
         <v>417</v>
@@ -4921,13 +4930,13 @@
         <v>458610</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="M46" s="7">
         <v>796</v>
@@ -4936,13 +4945,13 @@
         <v>855786</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4957,13 +4966,13 @@
         <v>236267</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="H47" s="7">
         <v>232</v>
@@ -4972,13 +4981,13 @@
         <v>251693</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="M47" s="7">
         <v>458</v>
@@ -4987,13 +4996,13 @@
         <v>487960</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -5008,13 +5017,13 @@
         <v>100024</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="H48" s="7">
         <v>89</v>
@@ -5023,13 +5032,13 @@
         <v>97300</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="M48" s="7">
         <v>189</v>
@@ -5038,13 +5047,13 @@
         <v>197325</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -5059,13 +5068,13 @@
         <v>9940</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>54</v>
+        <v>347</v>
       </c>
       <c r="H49" s="7">
         <v>6</v>
@@ -5074,13 +5083,13 @@
         <v>7081</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>218</v>
+        <v>350</v>
       </c>
       <c r="M49" s="7">
         <v>17</v>
@@ -5089,13 +5098,13 @@
         <v>17021</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>45</v>
+        <v>351</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -5110,13 +5119,13 @@
         <v>22553</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="H50" s="7">
         <v>5</v>
@@ -5125,13 +5134,13 @@
         <v>5307</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="M50" s="7">
         <v>27</v>
@@ -5140,13 +5149,13 @@
         <v>27861</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>260</v>
+        <v>359</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -5161,13 +5170,13 @@
         <v>765961</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H51" s="7">
         <v>749</v>
@@ -5176,13 +5185,13 @@
         <v>819992</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M51" s="7">
         <v>1487</v>
@@ -5191,13 +5200,13 @@
         <v>1585953</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -5214,13 +5223,13 @@
         <v>1159819</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="H52" s="7">
         <v>1420</v>
@@ -5229,13 +5238,13 @@
         <v>1498161</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="M52" s="7">
         <v>2517</v>
@@ -5244,13 +5253,13 @@
         <v>2657980</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>29</v>
+        <v>370</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -5265,13 +5274,13 @@
         <v>990542</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="H53" s="7">
         <v>1071</v>
@@ -5280,13 +5289,13 @@
         <v>1130839</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="M53" s="7">
         <v>2020</v>
@@ -5295,13 +5304,13 @@
         <v>2121381</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -5316,13 +5325,13 @@
         <v>805598</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>245</v>
+        <v>382</v>
       </c>
       <c r="H54" s="7">
         <v>605</v>
@@ -5331,13 +5340,13 @@
         <v>640242</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="M54" s="7">
         <v>1371</v>
@@ -5346,13 +5355,13 @@
         <v>1445840</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>85</v>
+        <v>387</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>169</v>
+        <v>388</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -5367,13 +5376,13 @@
         <v>98463</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>377</v>
+        <v>262</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>378</v>
+        <v>313</v>
       </c>
       <c r="H55" s="7">
         <v>53</v>
@@ -5382,13 +5391,13 @@
         <v>62807</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="M55" s="7">
         <v>148</v>
@@ -5397,13 +5406,13 @@
         <v>161270</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -5418,13 +5427,13 @@
         <v>243546</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>386</v>
+        <v>301</v>
       </c>
       <c r="H56" s="7">
         <v>110</v>
@@ -5433,13 +5442,13 @@
         <v>123593</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="M56" s="7">
         <v>341</v>
@@ -5448,13 +5457,13 @@
         <v>367138</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -5469,13 +5478,13 @@
         <v>3297968</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H57" s="7">
         <v>3259</v>
@@ -5484,13 +5493,13 @@
         <v>3455642</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M57" s="7">
         <v>6397</v>
@@ -5499,18 +5508,18 @@
         <v>6753610</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -5534,7 +5543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21631FC1-FDA4-4033-B358-AABA3DBB4C5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE37EADC-13A0-4683-9062-813D7A79CFE6}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5551,7 +5560,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5658,13 +5667,13 @@
         <v>20364</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="H4" s="7">
         <v>48</v>
@@ -5673,13 +5682,13 @@
         <v>30199</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="M4" s="7">
         <v>68</v>
@@ -5688,13 +5697,13 @@
         <v>50563</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5709,13 +5718,13 @@
         <v>158818</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="H5" s="7">
         <v>334</v>
@@ -5724,13 +5733,13 @@
         <v>171471</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="M5" s="7">
         <v>519</v>
@@ -5739,13 +5748,13 @@
         <v>330289</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5760,13 +5769,13 @@
         <v>70157</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>413</v>
+        <v>294</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="H6" s="7">
         <v>137</v>
@@ -5775,13 +5784,13 @@
         <v>58370</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>215</v>
+        <v>427</v>
       </c>
       <c r="M6" s="7">
         <v>248</v>
@@ -5790,13 +5799,13 @@
         <v>128527</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5811,13 +5820,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -5826,13 +5835,13 @@
         <v>1209</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>424</v>
+        <v>143</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -5841,13 +5850,13 @@
         <v>1209</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5862,13 +5871,13 @@
         <v>10801</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>184</v>
+        <v>438</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
@@ -5877,13 +5886,13 @@
         <v>9400</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>307</v>
+        <v>440</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>429</v>
+        <v>350</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="M8" s="7">
         <v>29</v>
@@ -5892,13 +5901,13 @@
         <v>20201</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>432</v>
+        <v>94</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5913,13 +5922,13 @@
         <v>260139</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>537</v>
@@ -5928,13 +5937,13 @@
         <v>270649</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>867</v>
@@ -5943,18 +5952,18 @@
         <v>530788</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5966,13 +5975,13 @@
         <v>69359</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>436</v>
+        <v>237</v>
       </c>
       <c r="H10" s="7">
         <v>117</v>
@@ -5981,13 +5990,13 @@
         <v>100240</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="M10" s="7">
         <v>167</v>
@@ -5996,13 +6005,13 @@
         <v>169599</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6017,13 +6026,13 @@
         <v>246424</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="H11" s="7">
         <v>400</v>
@@ -6032,13 +6041,13 @@
         <v>315611</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="M11" s="7">
         <v>570</v>
@@ -6047,13 +6056,13 @@
         <v>562035</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6068,13 +6077,13 @@
         <v>173938</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="H12" s="7">
         <v>166</v>
@@ -6083,13 +6092,13 @@
         <v>115392</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="M12" s="7">
         <v>303</v>
@@ -6098,13 +6107,13 @@
         <v>289330</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>458</v>
+        <v>39</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>244</v>
+        <v>468</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6119,13 +6128,13 @@
         <v>6789</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>422</v>
+        <v>470</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>461</v>
+        <v>394</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -6134,13 +6143,13 @@
         <v>2687</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -6149,13 +6158,13 @@
         <v>9475</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>424</v>
+        <v>476</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6170,13 +6179,13 @@
         <v>22787</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>52</v>
+        <v>477</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>468</v>
+        <v>181</v>
       </c>
       <c r="H14" s="7">
         <v>27</v>
@@ -6185,13 +6194,13 @@
         <v>19190</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>307</v>
+        <v>440</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="M14" s="7">
         <v>46</v>
@@ -6200,13 +6209,13 @@
         <v>41977</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>303</v>
+        <v>481</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>134</v>
+        <v>482</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>103</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6221,13 +6230,13 @@
         <v>519297</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>714</v>
@@ -6236,13 +6245,13 @@
         <v>553120</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>1096</v>
@@ -6251,18 +6260,18 @@
         <v>1072417</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6274,13 +6283,13 @@
         <v>52680</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>473</v>
+        <v>429</v>
       </c>
       <c r="H16" s="7">
         <v>121</v>
@@ -6289,13 +6298,13 @@
         <v>96125</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>250</v>
+        <v>485</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>197</v>
+        <v>486</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="M16" s="7">
         <v>174</v>
@@ -6304,13 +6313,13 @@
         <v>148804</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>476</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6325,13 +6334,13 @@
         <v>139001</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>262</v>
+        <v>490</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="H17" s="7">
         <v>252</v>
@@ -6340,13 +6349,13 @@
         <v>178509</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="M17" s="7">
         <v>398</v>
@@ -6355,13 +6364,13 @@
         <v>317509</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6376,13 +6385,13 @@
         <v>102067</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>486</v>
+        <v>423</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="H18" s="7">
         <v>119</v>
@@ -6391,13 +6400,13 @@
         <v>72230</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="M18" s="7">
         <v>242</v>
@@ -6406,13 +6415,13 @@
         <v>174298</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6427,13 +6436,13 @@
         <v>7914</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>388</v>
+        <v>508</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -6442,13 +6451,13 @@
         <v>5067</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>498</v>
+        <v>315</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
@@ -6457,13 +6466,13 @@
         <v>12981</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>147</v>
+        <v>512</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>345</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6478,13 +6487,13 @@
         <v>16930</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>223</v>
+        <v>514</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>304</v>
+        <v>187</v>
       </c>
       <c r="H20" s="7">
         <v>31</v>
@@ -6493,13 +6502,13 @@
         <v>18735</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>501</v>
+        <v>480</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="M20" s="7">
         <v>54</v>
@@ -6508,13 +6517,13 @@
         <v>35665</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6529,13 +6538,13 @@
         <v>318591</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>531</v>
@@ -6544,13 +6553,13 @@
         <v>370666</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>887</v>
@@ -6559,13 +6568,13 @@
         <v>689257</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6582,13 +6591,13 @@
         <v>131399</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="H22" s="7">
         <v>265</v>
@@ -6597,13 +6606,13 @@
         <v>212568</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="M22" s="7">
         <v>365</v>
@@ -6612,13 +6621,13 @@
         <v>343967</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6633,13 +6642,13 @@
         <v>142296</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="H23" s="7">
         <v>229</v>
@@ -6648,13 +6657,13 @@
         <v>158984</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>519</v>
+        <v>369</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="M23" s="7">
         <v>363</v>
@@ -6663,13 +6672,13 @@
         <v>301280</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6684,13 +6693,13 @@
         <v>35477</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="H24" s="7">
         <v>70</v>
@@ -6699,13 +6708,13 @@
         <v>40362</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>435</v>
+        <v>540</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="M24" s="7">
         <v>109</v>
@@ -6714,13 +6723,13 @@
         <v>75839</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>532</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6735,13 +6744,13 @@
         <v>2396</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -6750,13 +6759,13 @@
         <v>807</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>536</v>
+        <v>346</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
@@ -6765,13 +6774,13 @@
         <v>3203</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6786,13 +6795,13 @@
         <v>4877</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>348</v>
+        <v>551</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>540</v>
+        <v>179</v>
       </c>
       <c r="H26" s="7">
         <v>10</v>
@@ -6801,13 +6810,13 @@
         <v>4510</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>542</v>
+        <v>470</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="M26" s="7">
         <v>17</v>
@@ -6816,13 +6825,13 @@
         <v>9387</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>533</v>
+        <v>555</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6837,13 +6846,13 @@
         <v>316445</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>576</v>
@@ -6852,13 +6861,13 @@
         <v>417232</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>859</v>
@@ -6867,18 +6876,18 @@
         <v>733677</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6890,13 +6899,13 @@
         <v>79434</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="H28" s="7">
         <v>201</v>
@@ -6905,13 +6914,13 @@
         <v>95832</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
       <c r="M28" s="7">
         <v>315</v>
@@ -6920,13 +6929,13 @@
         <v>175266</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6941,13 +6950,13 @@
         <v>113257</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="H29" s="7">
         <v>279</v>
@@ -6956,13 +6965,13 @@
         <v>130967</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="M29" s="7">
         <v>438</v>
@@ -6971,13 +6980,13 @@
         <v>244223</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>448</v>
+        <v>574</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6992,13 +7001,13 @@
         <v>3042</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="H30" s="7">
         <v>6</v>
@@ -7007,13 +7016,13 @@
         <v>2624</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>566</v>
+        <v>360</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>256</v>
+        <v>578</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>567</v>
+        <v>361</v>
       </c>
       <c r="M30" s="7">
         <v>10</v>
@@ -7022,13 +7031,13 @@
         <v>5666</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>340</v>
+        <v>580</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7043,13 +7052,13 @@
         <v>508</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>350</v>
+        <v>583</v>
       </c>
       <c r="H31" s="7">
         <v>3</v>
@@ -7058,13 +7067,13 @@
         <v>1165</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>350</v>
+        <v>509</v>
       </c>
       <c r="M31" s="7">
         <v>4</v>
@@ -7073,13 +7082,13 @@
         <v>1674</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>534</v>
+        <v>585</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>573</v>
+        <v>586</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7094,13 +7103,13 @@
         <v>506</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>538</v>
+        <v>469</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -7109,13 +7118,13 @@
         <v>401</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -7124,13 +7133,13 @@
         <v>907</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>575</v>
+        <v>588</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>340</v>
+        <v>589</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7145,13 +7154,13 @@
         <v>196748</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
         <v>490</v>
@@ -7160,13 +7169,13 @@
         <v>230989</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>769</v>
@@ -7175,18 +7184,18 @@
         <v>427736</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -7198,13 +7207,13 @@
         <v>19975</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>576</v>
+        <v>590</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>577</v>
+        <v>591</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>578</v>
+        <v>592</v>
       </c>
       <c r="H34" s="7">
         <v>41</v>
@@ -7213,13 +7222,13 @@
         <v>31174</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>579</v>
+        <v>593</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>580</v>
+        <v>594</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>581</v>
+        <v>595</v>
       </c>
       <c r="M34" s="7">
         <v>61</v>
@@ -7228,13 +7237,13 @@
         <v>51149</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>582</v>
+        <v>596</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>584</v>
+        <v>598</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7249,13 +7258,13 @@
         <v>129192</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>587</v>
+        <v>601</v>
       </c>
       <c r="H35" s="7">
         <v>216</v>
@@ -7264,13 +7273,13 @@
         <v>146639</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>588</v>
+        <v>602</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>590</v>
+        <v>604</v>
       </c>
       <c r="M35" s="7">
         <v>370</v>
@@ -7279,13 +7288,13 @@
         <v>275831</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>591</v>
+        <v>605</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>592</v>
+        <v>606</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>593</v>
+        <v>607</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7300,13 +7309,13 @@
         <v>99683</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>594</v>
+        <v>608</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>595</v>
+        <v>609</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="H36" s="7">
         <v>155</v>
@@ -7315,13 +7324,13 @@
         <v>75471</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>597</v>
+        <v>430</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>598</v>
+        <v>611</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>599</v>
+        <v>612</v>
       </c>
       <c r="M36" s="7">
         <v>305</v>
@@ -7330,13 +7339,13 @@
         <v>175154</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>600</v>
+        <v>613</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>166</v>
+        <v>372</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>601</v>
+        <v>614</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7351,13 +7360,13 @@
         <v>7609</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>602</v>
+        <v>615</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>603</v>
+        <v>554</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="H37" s="7">
         <v>16</v>
@@ -7366,13 +7375,13 @@
         <v>9338</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="M37" s="7">
         <v>27</v>
@@ -7381,13 +7390,13 @@
         <v>16946</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>608</v>
+        <v>58</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>382</v>
+        <v>620</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7402,13 +7411,13 @@
         <v>19983</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>576</v>
+        <v>590</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="H38" s="7">
         <v>32</v>
@@ -7417,13 +7426,13 @@
         <v>13001</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>614</v>
+        <v>103</v>
       </c>
       <c r="M38" s="7">
         <v>67</v>
@@ -7432,13 +7441,13 @@
         <v>32984</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7453,13 +7462,13 @@
         <v>276441</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H39" s="7">
         <v>460</v>
@@ -7468,13 +7477,13 @@
         <v>275622</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M39" s="7">
         <v>830</v>
@@ -7483,18 +7492,18 @@
         <v>552064</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -7506,13 +7515,13 @@
         <v>192827</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>265</v>
+        <v>630</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="H40" s="7">
         <v>375</v>
@@ -7521,13 +7530,13 @@
         <v>281960</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="M40" s="7">
         <v>559</v>
@@ -7536,13 +7545,13 @@
         <v>474787</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>625</v>
+        <v>364</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7557,13 +7566,13 @@
         <v>271076</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>480</v>
+        <v>637</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="H41" s="7">
         <v>470</v>
@@ -7572,13 +7581,13 @@
         <v>438409</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="M41" s="7">
         <v>731</v>
@@ -7587,13 +7596,13 @@
         <v>709485</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7608,13 +7617,13 @@
         <v>131017</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
       <c r="H42" s="7">
         <v>91</v>
@@ -7623,13 +7632,13 @@
         <v>66055</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>299</v>
+        <v>650</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>638</v>
+        <v>651</v>
       </c>
       <c r="M42" s="7">
         <v>213</v>
@@ -7638,13 +7647,13 @@
         <v>197072</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>639</v>
+        <v>652</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>640</v>
+        <v>653</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>641</v>
+        <v>654</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7659,13 +7668,13 @@
         <v>9838</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>642</v>
+        <v>655</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>643</v>
+        <v>555</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>345</v>
+        <v>656</v>
       </c>
       <c r="H43" s="7">
         <v>5</v>
@@ -7674,13 +7683,13 @@
         <v>3815</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>644</v>
+        <v>657</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>645</v>
+        <v>587</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>646</v>
+        <v>549</v>
       </c>
       <c r="M43" s="7">
         <v>15</v>
@@ -7689,13 +7698,13 @@
         <v>13653</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>647</v>
+        <v>586</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>648</v>
+        <v>658</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7710,13 +7719,13 @@
         <v>18976</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>649</v>
+        <v>179</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>650</v>
+        <v>359</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="H44" s="7">
         <v>13</v>
@@ -7725,13 +7734,13 @@
         <v>10358</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>652</v>
+        <v>583</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>343</v>
+        <v>432</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>567</v>
+        <v>391</v>
       </c>
       <c r="M44" s="7">
         <v>30</v>
@@ -7740,13 +7749,13 @@
         <v>29334</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>460</v>
+        <v>507</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7761,13 +7770,13 @@
         <v>623734</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H45" s="7">
         <v>954</v>
@@ -7776,13 +7785,13 @@
         <v>800598</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M45" s="7">
         <v>1548</v>
@@ -7791,18 +7800,18 @@
         <v>1424332</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -7814,13 +7823,13 @@
         <v>231788</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="H46" s="7">
         <v>404</v>
@@ -7829,13 +7838,13 @@
         <v>339606</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="M46" s="7">
         <v>573</v>
@@ -7844,13 +7853,13 @@
         <v>571393</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>663</v>
+        <v>246</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7865,13 +7874,13 @@
         <v>520610</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>665</v>
+        <v>492</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="H47" s="7">
         <v>551</v>
@@ -7880,13 +7889,13 @@
         <v>446560</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="M47" s="7">
         <v>1035</v>
@@ -7895,13 +7904,13 @@
         <v>967170</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7916,13 +7925,13 @@
         <v>75938</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="H48" s="7">
         <v>66</v>
@@ -7931,13 +7940,13 @@
         <v>52295</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>677</v>
+        <v>91</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="M48" s="7">
         <v>140</v>
@@ -7946,13 +7955,13 @@
         <v>128233</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>401</v>
+        <v>439</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7967,13 +7976,13 @@
         <v>16046</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>306</v>
+        <v>360</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>88</v>
+        <v>685</v>
       </c>
       <c r="H49" s="7">
         <v>29</v>
@@ -7982,13 +7991,13 @@
         <v>19377</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="M49" s="7">
         <v>49</v>
@@ -7997,13 +8006,13 @@
         <v>35423</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>545</v>
+        <v>689</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>309</v>
+        <v>218</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -8018,13 +8027,13 @@
         <v>14354</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>309</v>
+        <v>692</v>
       </c>
       <c r="H50" s="7">
         <v>11</v>
@@ -8033,13 +8042,13 @@
         <v>7834</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>145</v>
+        <v>693</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>686</v>
+        <v>655</v>
       </c>
       <c r="M50" s="7">
         <v>25</v>
@@ -8048,13 +8057,13 @@
         <v>22188</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>652</v>
+        <v>583</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -8069,13 +8078,13 @@
         <v>858735</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H51" s="7">
         <v>1061</v>
@@ -8084,13 +8093,13 @@
         <v>865672</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M51" s="7">
         <v>1822</v>
@@ -8099,13 +8108,13 @@
         <v>1724407</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -8122,13 +8131,13 @@
         <v>797825</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="H52" s="7">
         <v>1572</v>
@@ -8137,13 +8146,13 @@
         <v>1187704</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>693</v>
+        <v>334</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="M52" s="7">
         <v>2282</v>
@@ -8152,13 +8161,13 @@
         <v>1985529</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>164</v>
+        <v>703</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -8173,13 +8182,13 @@
         <v>1720673</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>698</v>
+        <v>319</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="H53" s="7">
         <v>2731</v>
@@ -8188,13 +8197,13 @@
         <v>1987150</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="M53" s="7">
         <v>4424</v>
@@ -8203,13 +8212,13 @@
         <v>3707824</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -8224,13 +8233,13 @@
         <v>691318</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="H54" s="7">
         <v>810</v>
@@ -8239,13 +8248,13 @@
         <v>482799</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="M54" s="7">
         <v>1570</v>
@@ -8254,13 +8263,13 @@
         <v>1174118</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -8275,13 +8284,13 @@
         <v>51099</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>424</v>
+        <v>721</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
       <c r="H55" s="7">
         <v>70</v>
@@ -8290,13 +8299,13 @@
         <v>43465</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>685</v>
+        <v>474</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="M55" s="7">
         <v>132</v>
@@ -8305,13 +8314,13 @@
         <v>94564</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>719</v>
+        <v>552</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>720</v>
+        <v>655</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -8326,13 +8335,13 @@
         <v>109214</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>721</v>
+        <v>514</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>722</v>
+        <v>218</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>723</v>
+        <v>481</v>
       </c>
       <c r="H56" s="7">
         <v>140</v>
@@ -8341,13 +8350,13 @@
         <v>83429</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="M56" s="7">
         <v>270</v>
@@ -8356,13 +8365,13 @@
         <v>192643</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>184</v>
+        <v>728</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8377,13 +8386,13 @@
         <v>3370130</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H57" s="7">
         <v>5323</v>
@@ -8392,13 +8401,13 @@
         <v>3784548</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M57" s="7">
         <v>8678</v>
@@ -8407,18 +8416,18 @@
         <v>7154678</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19E-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19E-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09D86E6F-2CB4-47DC-B2B3-45D8BCC70B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EADF6C2B-A51C-4F17-AF52-2C47A25E4908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E0B848C4-F44E-4DA0-B2C2-B22E9BFC518D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{33DD6306-B958-4749-9F06-DD42CC2DE155}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="727">
   <si>
     <t>Población según el número de veces que se cepilla los dientes al día en 2016 (Tasa respuesta: 97,38%)</t>
   </si>
@@ -1254,976 +1254,970 @@
     <t>Población según el número de veces que se cepilla los dientes al día en 2023 (Tasa respuesta: 99,26%)</t>
   </si>
   <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
   </si>
   <si>
     <t>11,16%</t>
   </si>
   <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
   </si>
   <si>
     <t>12,33%</t>
   </si>
   <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
   </si>
   <si>
     <t>0,79%</t>
   </si>
   <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
+    <t>1,21%</t>
   </si>
   <si>
     <t>0,96%</t>
   </si>
   <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
   </si>
 </sst>
 </file>
@@ -2635,7 +2629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00D2105-C170-427A-BB97-FFBA2126006D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B065D879-5391-4820-9E59-401DF3732195}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -5235,7 +5229,7 @@
         <v>1420</v>
       </c>
       <c r="I52" s="7">
-        <v>1498161</v>
+        <v>1498160</v>
       </c>
       <c r="J52" s="7" t="s">
         <v>365</v>
@@ -5490,7 +5484,7 @@
         <v>3259</v>
       </c>
       <c r="I57" s="7">
-        <v>3455642</v>
+        <v>3455641</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>60</v>
@@ -5543,7 +5537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE37EADC-13A0-4683-9062-813D7A79CFE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0052F755-BBA9-4349-8F69-E9DD358B87AE}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5664,7 +5658,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="7">
-        <v>20364</v>
+        <v>26152</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>405</v>
@@ -5679,7 +5673,7 @@
         <v>48</v>
       </c>
       <c r="I4" s="7">
-        <v>30199</v>
+        <v>32916</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>408</v>
@@ -5694,7 +5688,7 @@
         <v>68</v>
       </c>
       <c r="N4" s="7">
-        <v>50563</v>
+        <v>59068</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>411</v>
@@ -5715,7 +5709,7 @@
         <v>185</v>
       </c>
       <c r="D5" s="7">
-        <v>158818</v>
+        <v>193844</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>414</v>
@@ -5730,7 +5724,7 @@
         <v>334</v>
       </c>
       <c r="I5" s="7">
-        <v>171471</v>
+        <v>184526</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>417</v>
@@ -5745,7 +5739,7 @@
         <v>519</v>
       </c>
       <c r="N5" s="7">
-        <v>330289</v>
+        <v>378370</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>420</v>
@@ -5766,13 +5760,13 @@
         <v>111</v>
       </c>
       <c r="D6" s="7">
-        <v>70157</v>
+        <v>79189</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>424</v>
@@ -5781,7 +5775,7 @@
         <v>137</v>
       </c>
       <c r="I6" s="7">
-        <v>58370</v>
+        <v>60183</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>425</v>
@@ -5796,16 +5790,16 @@
         <v>248</v>
       </c>
       <c r="N6" s="7">
-        <v>128527</v>
+        <v>139371</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5823,34 +5817,34 @@
         <v>137</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>1209</v>
+        <v>1229</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>1209</v>
+        <v>1229</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>134</v>
+        <v>434</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>435</v>
@@ -5868,7 +5862,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="7">
-        <v>10801</v>
+        <v>12089</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>437</v>
@@ -5883,28 +5877,28 @@
         <v>15</v>
       </c>
       <c r="I8" s="7">
-        <v>9400</v>
+        <v>10027</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>440</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>350</v>
+        <v>441</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M8" s="7">
         <v>29</v>
       </c>
       <c r="N8" s="7">
-        <v>20201</v>
+        <v>22117</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>442</v>
+        <v>223</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>443</v>
@@ -5919,7 +5913,7 @@
         <v>330</v>
       </c>
       <c r="D9" s="7">
-        <v>260139</v>
+        <v>311274</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -5934,7 +5928,7 @@
         <v>537</v>
       </c>
       <c r="I9" s="7">
-        <v>270649</v>
+        <v>288881</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -5949,7 +5943,7 @@
         <v>867</v>
       </c>
       <c r="N9" s="7">
-        <v>530788</v>
+        <v>600156</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -5972,22 +5966,22 @@
         <v>50</v>
       </c>
       <c r="D10" s="7">
-        <v>69359</v>
+        <v>70866</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>444</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H10" s="7">
         <v>117</v>
       </c>
       <c r="I10" s="7">
-        <v>100240</v>
+        <v>93644</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>446</v>
@@ -6002,7 +5996,7 @@
         <v>167</v>
       </c>
       <c r="N10" s="7">
-        <v>169599</v>
+        <v>164510</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>449</v>
@@ -6023,7 +6017,7 @@
         <v>170</v>
       </c>
       <c r="D11" s="7">
-        <v>246424</v>
+        <v>249704</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>452</v>
@@ -6038,7 +6032,7 @@
         <v>400</v>
       </c>
       <c r="I11" s="7">
-        <v>315611</v>
+        <v>293402</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>455</v>
@@ -6053,7 +6047,7 @@
         <v>570</v>
       </c>
       <c r="N11" s="7">
-        <v>562035</v>
+        <v>543106</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>458</v>
@@ -6074,46 +6068,46 @@
         <v>137</v>
       </c>
       <c r="D12" s="7">
-        <v>173938</v>
+        <v>169772</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>463</v>
       </c>
       <c r="H12" s="7">
         <v>166</v>
       </c>
       <c r="I12" s="7">
-        <v>115392</v>
+        <v>106718</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>466</v>
       </c>
       <c r="M12" s="7">
         <v>303</v>
       </c>
       <c r="N12" s="7">
-        <v>289330</v>
+        <v>276490</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>39</v>
+        <v>466</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>467</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>468</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6125,46 +6119,46 @@
         <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>6789</v>
+        <v>6342</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
       </c>
       <c r="I13" s="7">
-        <v>2687</v>
+        <v>2424</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>473</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
       </c>
       <c r="N13" s="7">
-        <v>9475</v>
+        <v>8766</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>475</v>
+        <v>261</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>476</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6176,46 +6170,46 @@
         <v>19</v>
       </c>
       <c r="D14" s="7">
-        <v>22787</v>
+        <v>21706</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>181</v>
+        <v>476</v>
       </c>
       <c r="H14" s="7">
         <v>27</v>
       </c>
       <c r="I14" s="7">
-        <v>19190</v>
+        <v>17463</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>440</v>
+        <v>477</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>480</v>
       </c>
       <c r="M14" s="7">
         <v>46</v>
       </c>
       <c r="N14" s="7">
-        <v>41977</v>
+        <v>39170</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6227,7 +6221,7 @@
         <v>382</v>
       </c>
       <c r="D15" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -6242,7 +6236,7 @@
         <v>714</v>
       </c>
       <c r="I15" s="7">
-        <v>553120</v>
+        <v>513651</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -6257,7 +6251,7 @@
         <v>1096</v>
       </c>
       <c r="N15" s="7">
-        <v>1072417</v>
+        <v>1032041</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -6280,7 +6274,7 @@
         <v>53</v>
       </c>
       <c r="D16" s="7">
-        <v>52680</v>
+        <v>52134</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>483</v>
@@ -6289,13 +6283,13 @@
         <v>484</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>429</v>
+        <v>386</v>
       </c>
       <c r="H16" s="7">
         <v>121</v>
       </c>
       <c r="I16" s="7">
-        <v>96125</v>
+        <v>90598</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>485</v>
@@ -6304,22 +6298,22 @@
         <v>486</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>378</v>
+        <v>487</v>
       </c>
       <c r="M16" s="7">
         <v>174</v>
       </c>
       <c r="N16" s="7">
-        <v>148804</v>
+        <v>142733</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>72</v>
+        <v>490</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6331,46 +6325,46 @@
         <v>146</v>
       </c>
       <c r="D17" s="7">
-        <v>139001</v>
+        <v>137511</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="H17" s="7">
         <v>252</v>
       </c>
       <c r="I17" s="7">
-        <v>178509</v>
+        <v>166810</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="M17" s="7">
         <v>398</v>
       </c>
       <c r="N17" s="7">
-        <v>317509</v>
+        <v>304320</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6382,46 +6376,46 @@
         <v>123</v>
       </c>
       <c r="D18" s="7">
-        <v>102067</v>
+        <v>99258</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>423</v>
+        <v>501</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="H18" s="7">
         <v>119</v>
       </c>
       <c r="I18" s="7">
-        <v>72230</v>
+        <v>67328</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="M18" s="7">
         <v>242</v>
       </c>
       <c r="N18" s="7">
-        <v>174298</v>
+        <v>166587</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6433,46 +6427,46 @@
         <v>11</v>
       </c>
       <c r="D19" s="7">
-        <v>7914</v>
+        <v>7554</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>506</v>
+        <v>44</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
       </c>
       <c r="I19" s="7">
-        <v>5067</v>
+        <v>4682</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>315</v>
+        <v>513</v>
       </c>
       <c r="M19" s="7">
         <v>19</v>
       </c>
       <c r="N19" s="7">
-        <v>12981</v>
+        <v>12236</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>511</v>
+        <v>350</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>389</v>
+        <v>515</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6484,46 +6478,46 @@
         <v>23</v>
       </c>
       <c r="D20" s="7">
-        <v>16930</v>
+        <v>16084</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>187</v>
+        <v>518</v>
       </c>
       <c r="H20" s="7">
         <v>31</v>
       </c>
       <c r="I20" s="7">
-        <v>18735</v>
+        <v>17293</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="M20" s="7">
         <v>54</v>
       </c>
       <c r="N20" s="7">
-        <v>35665</v>
+        <v>33377</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>519</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6535,7 +6529,7 @@
         <v>356</v>
       </c>
       <c r="D21" s="7">
-        <v>318591</v>
+        <v>312542</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -6550,7 +6544,7 @@
         <v>531</v>
       </c>
       <c r="I21" s="7">
-        <v>370666</v>
+        <v>346711</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -6565,7 +6559,7 @@
         <v>887</v>
       </c>
       <c r="N21" s="7">
-        <v>689257</v>
+        <v>659253</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -6588,46 +6582,46 @@
         <v>100</v>
       </c>
       <c r="D22" s="7">
-        <v>131399</v>
+        <v>129522</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="H22" s="7">
         <v>265</v>
       </c>
       <c r="I22" s="7">
-        <v>212568</v>
+        <v>220120</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>524</v>
+        <v>39</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="M22" s="7">
         <v>365</v>
       </c>
       <c r="N22" s="7">
-        <v>343967</v>
+        <v>349642</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6639,46 +6633,46 @@
         <v>134</v>
       </c>
       <c r="D23" s="7">
-        <v>142296</v>
+        <v>136533</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="H23" s="7">
         <v>229</v>
       </c>
       <c r="I23" s="7">
-        <v>158984</v>
+        <v>202465</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>369</v>
+        <v>534</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="M23" s="7">
         <v>363</v>
       </c>
       <c r="N23" s="7">
-        <v>301280</v>
+        <v>338998</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6690,46 +6684,46 @@
         <v>39</v>
       </c>
       <c r="D24" s="7">
-        <v>35477</v>
+        <v>34064</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="H24" s="7">
         <v>70</v>
       </c>
       <c r="I24" s="7">
-        <v>40362</v>
+        <v>37599</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="M24" s="7">
         <v>109</v>
       </c>
       <c r="N24" s="7">
-        <v>75839</v>
+        <v>71662</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>235</v>
+        <v>548</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6741,46 +6735,46 @@
         <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>2396</v>
+        <v>2268</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>547</v>
+        <v>398</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
       </c>
       <c r="I25" s="7">
-        <v>807</v>
+        <v>767</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>264</v>
+        <v>551</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>137</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>346</v>
+        <v>552</v>
       </c>
       <c r="M25" s="7">
         <v>5</v>
       </c>
       <c r="N25" s="7">
-        <v>3203</v>
+        <v>3034</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>261</v>
+        <v>553</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>548</v>
+        <v>471</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>549</v>
+        <v>472</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6792,46 +6786,46 @@
         <v>7</v>
       </c>
       <c r="D26" s="7">
-        <v>4877</v>
+        <v>4658</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>551</v>
+        <v>436</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>179</v>
+        <v>555</v>
       </c>
       <c r="H26" s="7">
         <v>10</v>
       </c>
       <c r="I26" s="7">
-        <v>4510</v>
+        <v>4223</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>552</v>
+        <v>224</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>470</v>
+        <v>145</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="M26" s="7">
         <v>17</v>
       </c>
       <c r="N26" s="7">
-        <v>9387</v>
+        <v>8881</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>555</v>
+        <v>222</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6843,7 +6837,7 @@
         <v>283</v>
       </c>
       <c r="D27" s="7">
-        <v>316445</v>
+        <v>307045</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -6858,7 +6852,7 @@
         <v>576</v>
       </c>
       <c r="I27" s="7">
-        <v>417232</v>
+        <v>465173</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -6873,7 +6867,7 @@
         <v>859</v>
       </c>
       <c r="N27" s="7">
-        <v>733677</v>
+        <v>772218</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -6896,46 +6890,46 @@
         <v>114</v>
       </c>
       <c r="D28" s="7">
-        <v>79434</v>
+        <v>72310</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="H28" s="7">
         <v>201</v>
       </c>
       <c r="I28" s="7">
-        <v>95832</v>
+        <v>86086</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="M28" s="7">
         <v>315</v>
       </c>
       <c r="N28" s="7">
-        <v>175266</v>
+        <v>158396</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6947,46 +6941,46 @@
         <v>159</v>
       </c>
       <c r="D29" s="7">
-        <v>113257</v>
+        <v>102747</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="H29" s="7">
         <v>279</v>
       </c>
       <c r="I29" s="7">
-        <v>130967</v>
+        <v>117957</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="M29" s="7">
         <v>438</v>
       </c>
       <c r="N29" s="7">
-        <v>244223</v>
+        <v>220704</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6998,46 +6992,46 @@
         <v>4</v>
       </c>
       <c r="D30" s="7">
-        <v>3042</v>
+        <v>2751</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="H30" s="7">
         <v>6</v>
       </c>
       <c r="I30" s="7">
-        <v>2624</v>
+        <v>2386</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>360</v>
+        <v>557</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>361</v>
+        <v>470</v>
       </c>
       <c r="M30" s="7">
         <v>10</v>
       </c>
       <c r="N30" s="7">
-        <v>5666</v>
+        <v>5137</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>579</v>
+        <v>433</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>581</v>
+        <v>392</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7049,7 +7043,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="7">
-        <v>508</v>
+        <v>463</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>582</v>
@@ -7058,37 +7052,37 @@
         <v>137</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>583</v>
+        <v>345</v>
       </c>
       <c r="H31" s="7">
         <v>3</v>
       </c>
       <c r="I31" s="7">
-        <v>1165</v>
+        <v>1056</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>584</v>
+        <v>551</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>509</v>
+        <v>583</v>
       </c>
       <c r="M31" s="7">
         <v>4</v>
       </c>
       <c r="N31" s="7">
-        <v>1674</v>
+        <v>1520</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>576</v>
+        <v>553</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>586</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7100,7 +7094,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>506</v>
+        <v>471</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>582</v>
@@ -7109,28 +7103,28 @@
         <v>137</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>469</v>
+        <v>585</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
       </c>
       <c r="I32" s="7">
-        <v>401</v>
+        <v>363</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>137</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>474</v>
+        <v>587</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
       </c>
       <c r="N32" s="7">
-        <v>907</v>
+        <v>834</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>588</v>
@@ -7151,7 +7145,7 @@
         <v>279</v>
       </c>
       <c r="D33" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>60</v>
@@ -7166,7 +7160,7 @@
         <v>490</v>
       </c>
       <c r="I33" s="7">
-        <v>230989</v>
+        <v>207849</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>60</v>
@@ -7181,7 +7175,7 @@
         <v>769</v>
       </c>
       <c r="N33" s="7">
-        <v>427736</v>
+        <v>386591</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>60</v>
@@ -7204,7 +7198,7 @@
         <v>20</v>
       </c>
       <c r="D34" s="7">
-        <v>19975</v>
+        <v>19206</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>590</v>
@@ -7219,7 +7213,7 @@
         <v>41</v>
       </c>
       <c r="I34" s="7">
-        <v>31174</v>
+        <v>28698</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>593</v>
@@ -7234,7 +7228,7 @@
         <v>61</v>
       </c>
       <c r="N34" s="7">
-        <v>51149</v>
+        <v>47904</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>596</v>
@@ -7255,7 +7249,7 @@
         <v>154</v>
       </c>
       <c r="D35" s="7">
-        <v>129192</v>
+        <v>126328</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>599</v>
@@ -7270,7 +7264,7 @@
         <v>216</v>
       </c>
       <c r="I35" s="7">
-        <v>146639</v>
+        <v>136799</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>602</v>
@@ -7285,7 +7279,7 @@
         <v>370</v>
       </c>
       <c r="N35" s="7">
-        <v>275831</v>
+        <v>263127</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>605</v>
@@ -7306,7 +7300,7 @@
         <v>150</v>
       </c>
       <c r="D36" s="7">
-        <v>99683</v>
+        <v>96723</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>608</v>
@@ -7321,31 +7315,31 @@
         <v>155</v>
       </c>
       <c r="I36" s="7">
-        <v>75471</v>
+        <v>70639</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>430</v>
+        <v>611</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="M36" s="7">
         <v>305</v>
       </c>
       <c r="N36" s="7">
-        <v>175154</v>
+        <v>167362</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>372</v>
+        <v>615</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7357,40 +7351,40 @@
         <v>11</v>
       </c>
       <c r="D37" s="7">
-        <v>7609</v>
+        <v>7421</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>615</v>
+        <v>260</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>554</v>
+        <v>509</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H37" s="7">
         <v>16</v>
       </c>
       <c r="I37" s="7">
-        <v>9338</v>
+        <v>8687</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>618</v>
+        <v>441</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>619</v>
+        <v>308</v>
       </c>
       <c r="M37" s="7">
         <v>27</v>
       </c>
       <c r="N37" s="7">
-        <v>16946</v>
+        <v>16109</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>58</v>
+        <v>619</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>620</v>
@@ -7408,46 +7402,46 @@
         <v>35</v>
       </c>
       <c r="D38" s="7">
-        <v>19983</v>
+        <v>19219</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>590</v>
+        <v>439</v>
       </c>
       <c r="F38" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>622</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>623</v>
       </c>
       <c r="H38" s="7">
         <v>32</v>
       </c>
       <c r="I38" s="7">
-        <v>13001</v>
+        <v>12233</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>624</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>625</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M38" s="7">
         <v>67</v>
       </c>
       <c r="N38" s="7">
-        <v>32984</v>
+        <v>31452</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>626</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>627</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7459,7 +7453,7 @@
         <v>370</v>
       </c>
       <c r="D39" s="7">
-        <v>276441</v>
+        <v>268897</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>60</v>
@@ -7474,7 +7468,7 @@
         <v>460</v>
       </c>
       <c r="I39" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>60</v>
@@ -7489,7 +7483,7 @@
         <v>830</v>
       </c>
       <c r="N39" s="7">
-        <v>552064</v>
+        <v>525953</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>60</v>
@@ -7512,46 +7506,46 @@
         <v>184</v>
       </c>
       <c r="D40" s="7">
-        <v>192827</v>
+        <v>191475</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>629</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>630</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>631</v>
       </c>
       <c r="H40" s="7">
         <v>375</v>
       </c>
       <c r="I40" s="7">
-        <v>281960</v>
+        <v>261330</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>632</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>633</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>634</v>
       </c>
       <c r="M40" s="7">
         <v>559</v>
       </c>
       <c r="N40" s="7">
-        <v>474787</v>
+        <v>452805</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>635</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>636</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7563,46 +7557,46 @@
         <v>261</v>
       </c>
       <c r="D41" s="7">
-        <v>271076</v>
+        <v>268315</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>637</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>638</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>639</v>
       </c>
       <c r="H41" s="7">
         <v>470</v>
       </c>
       <c r="I41" s="7">
-        <v>438409</v>
+        <v>510352</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>640</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>641</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>642</v>
       </c>
       <c r="M41" s="7">
         <v>731</v>
       </c>
       <c r="N41" s="7">
-        <v>709485</v>
+        <v>778667</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>643</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>644</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7614,46 +7608,46 @@
         <v>122</v>
       </c>
       <c r="D42" s="7">
-        <v>131017</v>
+        <v>132385</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>646</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>647</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>648</v>
       </c>
       <c r="H42" s="7">
         <v>91</v>
       </c>
       <c r="I42" s="7">
-        <v>66055</v>
+        <v>61412</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>649</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>650</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>651</v>
       </c>
       <c r="M42" s="7">
         <v>213</v>
       </c>
       <c r="N42" s="7">
-        <v>197072</v>
+        <v>193797</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>652</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>653</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7665,46 +7659,46 @@
         <v>10</v>
       </c>
       <c r="D43" s="7">
-        <v>9838</v>
+        <v>9545</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>655</v>
+        <v>577</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>555</v>
+        <v>55</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="H43" s="7">
         <v>5</v>
       </c>
       <c r="I43" s="7">
-        <v>3815</v>
+        <v>3298</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>657</v>
+        <v>553</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>587</v>
+        <v>471</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>549</v>
+        <v>655</v>
       </c>
       <c r="M43" s="7">
         <v>15</v>
       </c>
       <c r="N43" s="7">
-        <v>13653</v>
+        <v>12843</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>144</v>
+        <v>216</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7716,13 +7710,13 @@
         <v>17</v>
       </c>
       <c r="D44" s="7">
-        <v>18976</v>
+        <v>18728</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>179</v>
+        <v>657</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>359</v>
+        <v>658</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>659</v>
@@ -7731,31 +7725,31 @@
         <v>13</v>
       </c>
       <c r="I44" s="7">
-        <v>10358</v>
+        <v>9708</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>583</v>
+        <v>557</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>432</v>
+        <v>553</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>391</v>
+        <v>54</v>
       </c>
       <c r="M44" s="7">
         <v>30</v>
       </c>
       <c r="N44" s="7">
-        <v>29334</v>
+        <v>28436</v>
       </c>
       <c r="O44" s="7" t="s">
         <v>660</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>507</v>
+        <v>557</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>661</v>
+        <v>389</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7767,7 +7761,7 @@
         <v>594</v>
       </c>
       <c r="D45" s="7">
-        <v>623734</v>
+        <v>620448</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>60</v>
@@ -7782,7 +7776,7 @@
         <v>954</v>
       </c>
       <c r="I45" s="7">
-        <v>800598</v>
+        <v>846100</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>60</v>
@@ -7797,7 +7791,7 @@
         <v>1548</v>
       </c>
       <c r="N45" s="7">
-        <v>1424332</v>
+        <v>1466548</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>60</v>
@@ -7820,46 +7814,46 @@
         <v>169</v>
       </c>
       <c r="D46" s="7">
-        <v>231788</v>
+        <v>398196</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>662</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="G46" s="7" t="s">
         <v>663</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>664</v>
       </c>
       <c r="H46" s="7">
         <v>404</v>
       </c>
       <c r="I46" s="7">
-        <v>339606</v>
+        <v>281084</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="L46" s="7" t="s">
         <v>665</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>667</v>
       </c>
       <c r="M46" s="7">
         <v>573</v>
       </c>
       <c r="N46" s="7">
-        <v>571393</v>
+        <v>679281</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>668</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>669</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7871,13 +7865,13 @@
         <v>484</v>
       </c>
       <c r="D47" s="7">
-        <v>520610</v>
+        <v>439252</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>670</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>492</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>671</v>
@@ -7886,7 +7880,7 @@
         <v>551</v>
       </c>
       <c r="I47" s="7">
-        <v>446560</v>
+        <v>368711</v>
       </c>
       <c r="J47" s="7" t="s">
         <v>672</v>
@@ -7901,16 +7895,16 @@
         <v>1035</v>
       </c>
       <c r="N47" s="7">
-        <v>967170</v>
+        <v>807963</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P47" s="7" t="s">
         <v>675</v>
       </c>
-      <c r="P47" s="7" t="s">
+      <c r="Q47" s="7" t="s">
         <v>676</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7922,46 +7916,46 @@
         <v>74</v>
       </c>
       <c r="D48" s="7">
-        <v>75938</v>
+        <v>64570</v>
       </c>
       <c r="E48" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="F48" s="7" t="s">
         <v>678</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="G48" s="7" t="s">
         <v>679</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>680</v>
       </c>
       <c r="H48" s="7">
         <v>66</v>
       </c>
       <c r="I48" s="7">
-        <v>52295</v>
+        <v>42764</v>
       </c>
       <c r="J48" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="L48" s="7" t="s">
         <v>681</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>682</v>
       </c>
       <c r="M48" s="7">
         <v>140</v>
       </c>
       <c r="N48" s="7">
-        <v>128233</v>
+        <v>107334</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>439</v>
+        <v>682</v>
       </c>
       <c r="P48" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q48" s="7" t="s">
         <v>683</v>
-      </c>
-      <c r="Q48" s="7" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7973,46 +7967,46 @@
         <v>20</v>
       </c>
       <c r="D49" s="7">
-        <v>16046</v>
+        <v>13749</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>355</v>
+        <v>684</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>360</v>
+        <v>436</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>685</v>
+        <v>262</v>
       </c>
       <c r="H49" s="7">
         <v>29</v>
       </c>
       <c r="I49" s="7">
-        <v>19377</v>
+        <v>16302</v>
       </c>
       <c r="J49" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="K49" s="7" t="s">
         <v>686</v>
       </c>
-      <c r="K49" s="7" t="s">
+      <c r="L49" s="7" t="s">
         <v>687</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>688</v>
       </c>
       <c r="M49" s="7">
         <v>49</v>
       </c>
       <c r="N49" s="7">
-        <v>35423</v>
+        <v>30052</v>
       </c>
       <c r="O49" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q49" s="7" t="s">
         <v>689</v>
-      </c>
-      <c r="P49" s="7" t="s">
-        <v>690</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -8024,46 +8018,46 @@
         <v>14</v>
       </c>
       <c r="D50" s="7">
-        <v>14354</v>
+        <v>12348</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>353</v>
+        <v>433</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>691</v>
+        <v>431</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="H50" s="7">
         <v>11</v>
       </c>
       <c r="I50" s="7">
-        <v>7834</v>
+        <v>6531</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>691</v>
+        <v>224</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>693</v>
+        <v>431</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>655</v>
+        <v>221</v>
       </c>
       <c r="M50" s="7">
         <v>25</v>
       </c>
       <c r="N50" s="7">
-        <v>22188</v>
+        <v>18879</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>583</v>
+        <v>557</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -8075,7 +8069,7 @@
         <v>761</v>
       </c>
       <c r="D51" s="7">
-        <v>858735</v>
+        <v>928116</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>60</v>
@@ -8090,7 +8084,7 @@
         <v>1061</v>
       </c>
       <c r="I51" s="7">
-        <v>865672</v>
+        <v>715392</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>60</v>
@@ -8105,7 +8099,7 @@
         <v>1822</v>
       </c>
       <c r="N51" s="7">
-        <v>1724407</v>
+        <v>1643508</v>
       </c>
       <c r="O51" s="7" t="s">
         <v>60</v>
@@ -8128,46 +8122,46 @@
         <v>710</v>
       </c>
       <c r="D52" s="7">
-        <v>797825</v>
+        <v>959861</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>698</v>
+        <v>567</v>
       </c>
       <c r="H52" s="7">
         <v>1572</v>
       </c>
       <c r="I52" s="7">
-        <v>1187704</v>
+        <v>1094478</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>334</v>
+        <v>696</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>700</v>
+        <v>191</v>
       </c>
       <c r="M52" s="7">
         <v>2282</v>
       </c>
       <c r="N52" s="7">
-        <v>1985529</v>
+        <v>2054339</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -8179,46 +8173,46 @@
         <v>1693</v>
       </c>
       <c r="D53" s="7">
-        <v>1720673</v>
+        <v>1654233</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>319</v>
+        <v>701</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="H53" s="7">
         <v>2731</v>
       </c>
       <c r="I53" s="7">
-        <v>1987150</v>
+        <v>1981020</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="M53" s="7">
         <v>4424</v>
       </c>
       <c r="N53" s="7">
-        <v>3707824</v>
+        <v>3635254</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>709</v>
+        <v>203</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -8230,46 +8224,46 @@
         <v>760</v>
       </c>
       <c r="D54" s="7">
-        <v>691318</v>
+        <v>678711</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="H54" s="7">
         <v>810</v>
       </c>
       <c r="I54" s="7">
-        <v>482799</v>
+        <v>449028</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="M54" s="7">
         <v>1570</v>
       </c>
       <c r="N54" s="7">
-        <v>1174118</v>
+        <v>1127740</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -8281,46 +8275,46 @@
         <v>62</v>
       </c>
       <c r="D55" s="7">
-        <v>51099</v>
+        <v>47343</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>721</v>
+        <v>583</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>722</v>
+        <v>258</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="H55" s="7">
         <v>70</v>
       </c>
       <c r="I55" s="7">
-        <v>43465</v>
+        <v>38446</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>724</v>
+        <v>92</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>474</v>
+        <v>718</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>725</v>
+        <v>511</v>
       </c>
       <c r="M55" s="7">
         <v>132</v>
       </c>
       <c r="N55" s="7">
-        <v>94564</v>
+        <v>85789</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>579</v>
+        <v>719</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>552</v>
+        <v>720</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>655</v>
+        <v>721</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -8332,46 +8326,46 @@
         <v>130</v>
       </c>
       <c r="D56" s="7">
-        <v>109214</v>
+        <v>105304</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>514</v>
+        <v>619</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>481</v>
+        <v>722</v>
       </c>
       <c r="H56" s="7">
         <v>140</v>
       </c>
       <c r="I56" s="7">
-        <v>83429</v>
+        <v>77842</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>178</v>
+        <v>724</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="M56" s="7">
         <v>270</v>
       </c>
       <c r="N56" s="7">
-        <v>192643</v>
+        <v>183146</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>218</v>
+        <v>726</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>728</v>
+        <v>54</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>661</v>
+        <v>555</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8383,7 +8377,7 @@
         <v>3355</v>
       </c>
       <c r="D57" s="7">
-        <v>3370130</v>
+        <v>3445454</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>60</v>
@@ -8398,7 +8392,7 @@
         <v>5323</v>
       </c>
       <c r="I57" s="7">
-        <v>3784548</v>
+        <v>3640813</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>60</v>
@@ -8413,7 +8407,7 @@
         <v>8678</v>
       </c>
       <c r="N57" s="7">
-        <v>7154678</v>
+        <v>7086268</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>60</v>
